--- a/mobi_client/mobi_client/mobi_config/excel/WAV打点表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/WAV打点表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1200">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,426 @@
     <t>astring</t>
   </si>
   <si>
+    <t>00_03KSL3_404的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.010022676|VoiceEnd,1.4184581|VoicePlay,1.8996145|VoiceEnd,4</t>
+  </si>
+  <si>
+    <t>00_03KSL不是让你在</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.6275057|VoicePlay,2.3452382|VoiceEnd,4.2103176</t>
+  </si>
+  <si>
+    <t>00_03KSL不解决失控</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.1791837|VoicePlay,2.8182313|VoiceEnd,5.227483</t>
+  </si>
+  <si>
+    <t>00_03KSL为了巩固</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.2231746|VoicePlay,1.6259863|VoiceEnd,4.1017914</t>
+  </si>
+  <si>
+    <t>00_03KSL今天下午</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.9334467|VoicePlay,1.4774603|VoiceEnd,4.8332653</t>
+  </si>
+  <si>
+    <t>00_03KSL你被干掉</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.7842857|VoicePlay,2.5123582|VoiceEnd,5.2810884|VoicePlay,5.7835603|VoiceEnd,8.675351</t>
+  </si>
+  <si>
+    <t>00_03KSL你身体里</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.2612245|VoicePlay,2.9273696|VoiceEnd,5.121361</t>
+  </si>
+  <si>
+    <t>00_03KSL刚才你要是</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.02260771|VoiceEnd,2.135374</t>
+  </si>
+  <si>
+    <t>00_03KSL刚才有点</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.020022675|VoiceEnd,1.4216326|VoicePlay,1.7259864|VoiceEnd,3.1356008</t>
+  </si>
+  <si>
+    <t>00_03KSL前面那个门</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0599773|VoicePlay,1.2933787|VoiceEnd,2.8298867|VoicePlay,4.006553|VoiceEnd,6.44746|VoicePlay,7.3324037|VoiceEnd,8.129819</t>
+  </si>
+  <si>
+    <t>00_03KSL唉呀……</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.7723583|VoicePlay,1.4258957|VoiceEnd,5.7629933|VoicePlay,7.020567|VoiceEnd,8.406848</t>
+  </si>
+  <si>
+    <t>00_03KSL啊……</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0</t>
+  </si>
+  <si>
+    <t>00_03KSL啊啊……</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0.0127664395</t>
+  </si>
+  <si>
+    <t>00_03KSL嗯~~第一下</t>
+  </si>
+  <si>
+    <t>00_03KSL嗯~~第三下</t>
+  </si>
+  <si>
+    <t>00_03KSL嗯~~第二下</t>
+  </si>
+  <si>
+    <t>00_03KSL嗯嗯嗯…</t>
+  </si>
+  <si>
+    <t>00_03KSL嘘——小声点</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.012993197|VoiceEnd,0.39725623|VoicePlay,1.2410657|VoiceEnd,1.9109297</t>
+  </si>
+  <si>
+    <t>00_03KSL嘘，别出声。</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.2742177|VoicePlay,1.1349434|VoiceEnd,1.6473696</t>
+  </si>
+  <si>
+    <t>00_03KSL头还痛吗？</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.020521542|VoiceEnd,0.76013607</t>
+  </si>
+  <si>
+    <t>00_03KSL她接管了</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.3521996|VoicePlay,2.7745352|VoiceEnd,4.8217235</t>
+  </si>
+  <si>
+    <t>00_03KSL好像……</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.030952381|VoiceEnd,0.94714284</t>
+  </si>
+  <si>
+    <t>00_03KSL封存罩提前</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4043537|VoicePlay,2.0542858|VoiceEnd,2.521315</t>
+  </si>
+  <si>
+    <t>00_03KSL应该暂时</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.1703628</t>
+  </si>
+  <si>
+    <t>00_03KSL心动过速</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.6501813|VoicePlay,3.520771|VoiceEnd,5.1595464|VoicePlay,6.567846|VoiceEnd,8.513878|VoicePlay,8.961973|VoiceEnd,10.805578</t>
+  </si>
+  <si>
+    <t>00_03KSL感染源就是</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.4360092|VoicePlay,3.3023355|VoiceEnd,7.2136736</t>
+  </si>
+  <si>
+    <t>00_03KSL救？严格来说</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.04222222|VoiceEnd,0.67564625|VoicePlay,2.132517|VoiceEnd,3.1776643|VoicePlay,3.737188|VoiceEnd,5.510771|VoicePlay,6.070295|VoiceEnd,8.878481</t>
+  </si>
+  <si>
+    <t>00_03KSL昭离公馆</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.195034|VoicePlay,3.041678|VoiceEnd,4.196689</t>
+  </si>
+  <si>
+    <t>00_03KSL是被异质物</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.5868254|VoicePlay,2.953152|VoiceEnd,4.7396827</t>
+  </si>
+  <si>
+    <t>00_03KSL来让我检查</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.011020408|VoiceEnd,0.49827665|VoicePlay,1.0488663|VoiceEnd,2.1715193</t>
+  </si>
+  <si>
+    <t>00_03KSL理解正确</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.052154195|VoiceEnd,1.1124943|VoicePlay,1.8599546|VoiceEnd,3.1028118|VoicePlay,3.5373924|VoiceEnd,7.3007483</t>
+  </si>
+  <si>
+    <t>00_03KSL相当于变成</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.4138775|VoicePlay,3.1374602|VoiceEnd,4.827755</t>
+  </si>
+  <si>
+    <t>00_03KSL看完MV的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.3888888|VoicePlay,3.0451927|VoiceEnd,3.8589797|VoicePlay,4.082109|VoiceEnd,5.532517</t>
+  </si>
+  <si>
+    <t>00_03KSL糟糕呢</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.6270521|VoicePlay,1.6004761|VoiceEnd,3.0576417|VoicePlay,3.6607935|VoiceEnd,4.914898</t>
+  </si>
+  <si>
+    <t>00_03KSL给你喝的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.2612698|VoicePlay,1.5|VoiceEnd,2.7159865|VoicePlay,3.180272|VoiceEnd,4.333197|VoicePlay,5|VoiceEnd,6.577188</t>
+  </si>
+  <si>
+    <t>00_03KSL罪魁祸首</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.055986393|VoiceEnd,1.3215419|VoicePlay,1.623923|VoiceEnd,3.987007|VoicePlay,4.7597733|VoiceEnd,9.116372</t>
+  </si>
+  <si>
+    <t>00_03KSL讨厌，没被</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.3820635|VoicePlay,1.7457596|VoiceEnd,2.598821|VoicePlay,3.5179818|VoiceEnd,5.5679364</t>
+  </si>
+  <si>
+    <t>00_03KSL还应该多</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.007505669|VoiceEnd,1.5364853</t>
+  </si>
+  <si>
+    <t>00_03KSL还有194</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.0611792|VoicePlay,2.9445353|VoiceEnd,5.8768253|VoicePlay,6.4534693|VoiceEnd,7.2263947|VoicePlay,7.533129|VoiceEnd,10.342721</t>
+  </si>
+  <si>
+    <t>00_03KSL那么，逻辑</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.6175737|VoicePlay,1.1098412|VoiceEnd,3.5621996|VoicePlay,4.4214287|VoiceEnd,6|VoicePlay,6.5963492|VoiceEnd,7.366077</t>
+  </si>
+  <si>
+    <t>00_04KSL0号电梯</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.05176871|VoiceEnd,2.6716554</t>
+  </si>
+  <si>
+    <t>00_04KSL一次性为</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.4763265|VoicePlay,3.1601815|VoiceEnd,3.94483|VoicePlay,4.4703403|VoiceEnd,6.0900226</t>
+  </si>
+  <si>
+    <t>00_04KSL专门给作战</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.9823582</t>
+  </si>
+  <si>
+    <t>00_04KSL从我们之</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.058276646|VoiceEnd,2.0253742|VoicePlay,2.6040363|VoiceEnd,4.4563494</t>
+  </si>
+  <si>
+    <t>00_04KSL体力测试</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.2505215|VoicePlay,1.8072109|VoiceEnd,2.549456|VoiceEnd,3.6915646|VoicePlay,4.6926756|VoiceEnd,6.647959</t>
+  </si>
+  <si>
+    <t>00_04KSL刚才在电梯</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.6469162|VoicePlay,2.255034|VoiceEnd,4.1806574|VoicePlay,4.7718596|VoiceEnd,5.6502266|VoicePlay,5.8951473|VoiceEnd,7.145125</t>
+  </si>
+  <si>
+    <t>00_04KSL啊哈哈，</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.159864|VoicePlay,1.5571655|VoiceEnd,5.235374</t>
+  </si>
+  <si>
+    <t>00_04KSL嘻嘻，等我们</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoicePlay,1.4600227|VoiceEnd,2.7701814|VoicePlay,3.103764|VoiceEnd,4.065828</t>
+  </si>
+  <si>
+    <t>00_04KSL对不起…</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.030430838|VoiceEnd,0.867483|VoicePlay,1.6740589|VoiceEnd,2.3589115|VoicePlay,3.099569|VoiceEnd,4.2460546</t>
+  </si>
+  <si>
+    <t>00_04KSL怎么？看着</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.50730157|VoicePlay,1.2630612|VoiceEnd,2.174127</t>
+  </si>
+  <si>
+    <t>00_04KSL我懂了！</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoicePlay,0.58444446|VoiceEnd,1.3507257|VoicePlay,2.344263|VoiceEnd,2.9546938|VoicePlay,3.5845804|VoiceEnd,5.31195</t>
+  </si>
+  <si>
+    <t>00_04KSL按您指示</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.0142632|VoicePlay,2.8365533|VoiceEnd,3.7990477|VoicePlay,4.1432652|VoiceEnd,5.0930386</t>
+  </si>
+  <si>
+    <t>00_04KSL有一次我</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.6961904|VoicePlay,3.2048979|VoiceEnd,6.090272|VoicePlay,7.5619955|VoiceEnd,8.220408</t>
+  </si>
+  <si>
+    <t>00_04KSL等救你出来</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.1542857|VoicePlay,1.9313152|VoiceEnd,3.777279</t>
+  </si>
+  <si>
+    <t>00_04KSL超感者下</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.020997733|VoiceEnd,3.5009978</t>
+  </si>
+  <si>
+    <t>00_04KSL还不松开嘛</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.91437644|VoicePlay,1.7125623|VoiceEnd,2.4400227|VoicePlay,3.0108843|VoiceEnd,4.238458</t>
+  </si>
+  <si>
+    <t>01_01KSL指挥得还</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.013809524|VoiceEnd,1.9655782</t>
+  </si>
+  <si>
+    <t>01_02KSL上辈子的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.8231065</t>
+  </si>
+  <si>
+    <t>01_02KSL已经进入</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.012154195|VoiceEnd,1.4843991</t>
+  </si>
+  <si>
+    <t>01_02KSL异质物的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.5779818|VoicePlay,1.8297279|VoiceEnd,3.5180273|VoicePlay,4.095397|VoiceEnd,5.105057</t>
+  </si>
+  <si>
+    <t>01_02KSL异质物编号</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.034285713|VoiceEnd,2.0915647|VoicePlay,2.7001588|VoiceEnd,3.6602268|VoicePlay,3.8745124|VoiceEnd,6.7718368</t>
+  </si>
+  <si>
+    <t>01_02KSL持续15</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.0112471655|VoiceEnd,1.6072335</t>
+  </si>
+  <si>
+    <t>01_02KSL据此，昭</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.6810431|VoicePlay,1.1914059|VoiceEnd,4.1476417|VoicePlay,4.6641498|VoiceEnd,6.372857</t>
+  </si>
+  <si>
+    <t>01_02KSL看来对异</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.025419502|VoiceEnd,0.955805|VoicePlay,1.1307709|VoiceEnd,3.7671654|VoicePlay,4.148254|VoiceEnd,5.4759636</t>
+  </si>
+  <si>
+    <t>01_02KSL超规格异</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.319025|VoicePlay,2.7903175|VoiceEnd,4.5898414</t>
+  </si>
+  <si>
+    <t>01_02KSL还好暂时</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.8097279|VoicePlay,2.6594558|VoiceEnd,3.940975</t>
+  </si>
+  <si>
+    <t>01_02KSL这个新出</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.005079365|VoiceEnd,1.5460771|VoicePlay,2.220272|VoiceEnd,4.3594556</t>
+  </si>
+  <si>
+    <t>01_02KSL那就先选</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0295238|VoicePlay,1.7278005|VoiceEnd,2.5931973</t>
+  </si>
+  <si>
+    <t>01_03KSL你当时还</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.3814739|VoicePlay,2.239728|VoiceEnd,2.968685|VoicePlay,3.2393878|VoiceEnd,5.52932</t>
+  </si>
+  <si>
+    <t>01_04KSL又把自己</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.09253968|VoiceEnd,2.1850114|VoicePlay,2.9459183|VoiceEnd,4.400884</t>
+  </si>
+  <si>
+    <t>01_04KSL终于进入</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.19288</t>
+  </si>
+  <si>
+    <t>01_05KSL我们以前</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.01217687|VoiceEnd,1.1529251|VoicePlay,1.4086848|VoiceEnd,3.1746032</t>
+  </si>
+  <si>
     <t>100K可能</t>
   </si>
   <si>
@@ -98,12 +518,6 @@
     <t>VoicePlay,0.28918368|VoiceEnd,1.6936735|VoicePlay,2.5573468|VoiceEnd,3.918254|VoicePlay,4.4626303|VoiceEnd,6.0390024</t>
   </si>
   <si>
-    <t>10K说不上</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.054489795|VoiceEnd,1.1403629|VoicePlay,2.876213|VoiceEnd,3.8687074</t>
-  </si>
-  <si>
     <t>110K搜救队</t>
   </si>
   <si>
@@ -116,12 +530,6 @@
     <t>VoicePlay,0.2|VoiceEnd,2.563424|VoicePlay,3.5613153|VoiceEnd,4.3062587|VoicePlay,4.914694|VoiceEnd,7.7506576</t>
   </si>
   <si>
-    <t>112K是由</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.12716553|VoiceEnd,3.592381|VoicePlay,4.6593876|VoiceEnd,5.8310657|VoicePlay,6.902812|VoiceEnd,9.418708</t>
-  </si>
-  <si>
     <t>112K是由飞机</t>
   </si>
   <si>
@@ -170,12 +578,6 @@
     <t>VoicePlay,0.05|VoiceEnd,1.0732199</t>
   </si>
   <si>
-    <t>11K原来如此</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.038911566|VoiceEnd,2.0095918|VoicePlay,2.8270748|VoiceEnd,4.8026075</t>
-  </si>
-  <si>
     <t>120K感觉</t>
   </si>
   <si>
@@ -194,12 +596,6 @@
     <t>VoicePlay,0.048321996|VoiceEnd,2.5355103</t>
   </si>
   <si>
-    <t>122K收容</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.2|VoiceEnd,1.8922449|VoicePlay,2.6326983|VoiceEnd,4.8</t>
-  </si>
-  <si>
     <t>123K收容</t>
   </si>
   <si>
@@ -248,12 +644,6 @@
     <t>VoicePlay,0.15705216|VoiceEnd,2.3011565|VoicePlay,3.1515872|VoiceEnd,5.456304</t>
   </si>
   <si>
-    <t>12K见过</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06936508|VoiceEnd,1.0128344|VoicePlay,1.7453969|VoiceEnd,2.7776191</t>
-  </si>
-  <si>
     <t>130K听起来</t>
   </si>
   <si>
@@ -296,12 +686,6 @@
     <t>VoicePlay,0.020521542|VoiceEnd,0.40759638</t>
   </si>
   <si>
-    <t>137K那么</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.036190476|VoiceEnd,0.3157823|VoicePlay,1.0702494|VoiceEnd,5.091406</t>
-  </si>
-  <si>
     <t>138K如果是</t>
   </si>
   <si>
@@ -320,18 +704,6 @@
     <t>VoicePlay,0.12480725|VoiceEnd,1.3511338|VoicePlay,2.0728345|VoiceEnd,3.481202|VoicePlay,3.8738775|VoiceEnd,5.5890474|VoicePlay,5.9882765|VoiceEnd,7.173855</t>
   </si>
   <si>
-    <t>13K她在</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04122449|VoiceEnd,2.2030385|VoicePlay,2.5623584|VoiceEnd,4.282358|VoicePlay,4.5297503|VoiceEnd,5.855102</t>
-  </si>
-  <si>
-    <t>140K以她的</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.1529932|VoiceEnd,2.2609751|VoicePlay,3.144966|VoiceEnd,5.5306125</t>
-  </si>
-  <si>
     <t>141K以她的</t>
   </si>
   <si>
@@ -368,12 +740,6 @@
     <t>VoicePlay,0.13192743|VoiceEnd,1.7|VoicePlay,2.4419954|VoiceEnd,3.643288</t>
   </si>
   <si>
-    <t>145K你刚才说</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.1901814|VoiceEnd,3.729728|VoicePlay,4.8631973|VoiceEnd,7.864807</t>
-  </si>
-  <si>
     <t>146K你刚才说</t>
   </si>
   <si>
@@ -392,174 +758,24 @@
     <t>VoicePlay,0.07018141|VoiceEnd,1.8804308</t>
   </si>
   <si>
-    <t>148K404的本体</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.106507935|VoiceEnd,1.3427664|VoicePlay,1.8775737|VoiceEnd,3.1896598|VoicePlay,4.3213153|VoiceEnd,4.847234|VoicePlay,5.4301586|VoiceEnd,6.120816</t>
-  </si>
-  <si>
-    <t>149K大功告成</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.2|VoicePlay,1.7291156|VoiceEnd,2.7748299</t>
-  </si>
-  <si>
     <t>149K本体</t>
   </si>
   <si>
     <t>VoicePlay,0.042290248|VoiceEnd,1.3341724|VoicePlay,1.6571429|VoiceEnd,2.65678|VoicePlay,3.5424716|VoiceEnd,4|VoicePlay,4.5|VoiceEnd,5.169093</t>
   </si>
   <si>
-    <t>14K她说是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07777778|VoiceEnd,1.6574377|VoicePlay,2.3233106|VoiceEnd,3.5481632|VoicePlay,3.7960317|VoiceEnd,4.870204</t>
-  </si>
-  <si>
     <t>150K不正常</t>
   </si>
   <si>
     <t>VoicePlay,0.07662132|VoiceEnd,1.6037868|VoicePlay,2.5849206|VoiceEnd,3.9479365</t>
   </si>
   <si>
-    <t>150K大功告成</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.026099773|VoicePlay,0.44845805|VoiceEnd,1.7107936</t>
-  </si>
-  <si>
-    <t>15K你失忆了</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.024217688|VoiceEnd,0.83244896</t>
-  </si>
-  <si>
-    <t>16K我来</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.089773245|VoiceEnd,2.1400907|VoicePlay,3.5007029|VoiceEnd,4.677052</t>
-  </si>
-  <si>
-    <t>17K平方根</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06666667|VoiceEnd,0.7019274|VoicePlay,1.2980045|VoiceEnd,3.8900907</t>
-  </si>
-  <si>
-    <t>18K最后</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.058072563|VoiceEnd,1.1855329|VoicePlay,2.2685714|VoiceEnd,3.4131067</t>
-  </si>
-  <si>
-    <t>19K好了</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.049274378|VoicePlay,0.479093|VoiceEnd,0.79852605|VoicePlay,1.1654875|VoiceEnd,1.6785941</t>
-  </si>
-  <si>
     <t>1K别出声</t>
   </si>
   <si>
     <t>VoiceEnd,0.07952381|VoicePlay,1.2326758|VoiceEnd,1.8002268</t>
   </si>
   <si>
-    <t>20K这样啊</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.039614514|VoiceEnd,0.72845805</t>
-  </si>
-  <si>
-    <t>21K简称</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.0675737|VoiceEnd,1.4762359</t>
-  </si>
-  <si>
-    <t>21K这栋</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.09603175|VoiceEnd,1.9336735|VoicePlay,2.509932|VoiceEnd,4.6036735</t>
-  </si>
-  <si>
-    <t>22K同时</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.09897959|VoiceEnd,0.7176417|VoicePlay,1.2290477|VoiceEnd,4.029501</t>
-  </si>
-  <si>
-    <t>22K同时也是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.098322|VoiceEnd,3.5809298</t>
-  </si>
-  <si>
-    <t>23我记得</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.09011338|VoiceEnd,1.6006349|VoicePlay,2.035238|VoiceEnd,3.4132652|VoicePlay,4.0068707|VoiceEnd,5.2895236</t>
-  </si>
-  <si>
-    <t>24K因为</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.087483|VoiceEnd,2.4959183|VoicePlay,3.2306802|VoiceEnd,5.8432198</t>
-  </si>
-  <si>
-    <t>25K当时</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08068027|VoiceEnd,1.950907|VoicePlay,2.7136734|VoiceEnd,3.8138323|VoicePlay,4.8626304|VoiceEnd,5.603379|VoicePlay,6.0507708|VoiceEnd,7.312268</t>
-  </si>
-  <si>
-    <t>26K具体</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.061519273|VoiceEnd,0.65303856|VoicePlay,1.0710431|VoiceEnd,2.2461905</t>
-  </si>
-  <si>
-    <t>26K现在</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10251701|VoiceEnd,2.0111337|VoicePlay,2.5237868|VoiceEnd,4.4324036</t>
-  </si>
-  <si>
-    <t>27K异质物</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07498866|VoiceEnd,3.7485034</t>
-  </si>
-  <si>
-    <t>28K最好</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.044875283|VoiceEnd,2.1960318|VoicePlay,2.4043992|VoiceEnd,3.183424</t>
-  </si>
-  <si>
-    <t>29K没空</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.050181407|VoiceEnd,0.8555102|VoicePlay,1.34|VoiceEnd,2.1671429</t>
-  </si>
-  <si>
-    <t>2K应该暂时</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.07020408|VoicePlay,1.7094557|VoiceEnd,3.0220861</t>
-  </si>
-  <si>
-    <t>30K听着</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04356009|VoiceEnd,0.37462586|VoicePlay,1.0919274|VoiceEnd,2.8721542</t>
-  </si>
-  <si>
-    <t>31K不想</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.053424038|VoiceEnd,1.2788209|VoicePlay,1.9386848|VoiceEnd,3.1201134</t>
-  </si>
-  <si>
     <t>32K看来</t>
   </si>
   <si>
@@ -620,48 +836,6 @@
     <t>VoicePlay,0.097755104|VoiceEnd,0.82335603|VoicePlay,1.860975|VoiceEnd,3.7670748</t>
   </si>
   <si>
-    <t>41K前面</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.036848072|VoiceEnd,2.0414512</t>
-  </si>
-  <si>
-    <t>42K进去</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.064172335|VoiceEnd,1.1514286</t>
-  </si>
-  <si>
-    <t>43K您过奖</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.13170068|VoicePlay,1.1566666|VoiceEnd,2.702721|VoicePlay,3.5616326|VoiceEnd,5.680272</t>
-  </si>
-  <si>
-    <t>44K这里是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04979592|VoiceEnd,1.9970294|VoicePlay,2.7106576|VoiceEnd,5.5098186</t>
-  </si>
-  <si>
-    <t>45K我懂了</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.15809524|VoiceEnd,0.65106577|VoicePlay,1.0137868|VoiceEnd,1.6276417|VoicePlay,2.6507256|VoiceEnd,4.055147|VoicePlay,4.622494|VoiceEnd,6.9383903|VoicePlay,7.645238|VoiceEnd,9.2729025</t>
-  </si>
-  <si>
-    <t>46K不过</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.17124717|VoiceEnd,1.1789569|VoicePlay,1.8087755|VoiceEnd,6.080068</t>
-  </si>
-  <si>
-    <t>46K过程中</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.03435374|VoiceEnd,3.7265759</t>
-  </si>
-  <si>
     <t>47K杜博士</t>
   </si>
   <si>
@@ -680,12 +854,6 @@
     <t>VoicePlay,0.07954649|VoiceEnd,1.9975737|VoicePlay,2.8372788|VoiceEnd,3.6946259|VoicePlay,4.0570292|VoiceEnd,5.5507708|VoicePlay,8.281973|VoiceEnd,8.80347</t>
   </si>
   <si>
-    <t>4K感觉</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04011338|VoiceEnd,0.7695238</t>
-  </si>
-  <si>
     <t>50K完全可以</t>
   </si>
   <si>
@@ -746,30 +914,12 @@
     <t>VoicePlay,0.07344671|VoiceEnd,2.2572563</t>
   </si>
   <si>
-    <t>59K并在昏迷</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08163265|VoiceEnd,2.150771</t>
-  </si>
-  <si>
     <t>59K目前</t>
   </si>
   <si>
     <t>VoicePlay,0.065510206|VoiceEnd,1.299365|VoicePlay,1.9654422|VoiceEnd,5.14288|VoiceEnd,5.225374</t>
   </si>
   <si>
-    <t>59K目前已知</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07244898|VoiceEnd,1.4491837|VoicePlay,2.109365|VoiceEnd,5.2975965</t>
-  </si>
-  <si>
-    <t>5K你是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07174603|VoiceEnd,1.1552835|VoicePlay,2.0414965|VoiceEnd,3.569932</t>
-  </si>
-  <si>
     <t>60K首先是</t>
   </si>
   <si>
@@ -836,18 +986,6 @@
     <t>VoicePlay,0.101405896|VoiceEnd,1.605805|VoicePlay,2.4340816|VoiceEnd,3.9722676|VoicePlay,4.9780273|VoiceEnd,5.983764|VoicePlay,6.321837|VoiceEnd,8.443197</t>
   </si>
   <si>
-    <t>6K等一下</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07675737|VoiceEnd,0.35662133|VoicePlay,1.1014739|VoiceEnd,1.4671202|VoicePlay,2.7310884|VoiceEnd,4.3336506</t>
-  </si>
-  <si>
-    <t>70K异质物编号</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.11356009|VoiceEnd,1.9963038|VoicePlay,2.7254875|VoiceEnd,5.893288</t>
-  </si>
-  <si>
     <t>71K住户</t>
   </si>
   <si>
@@ -860,18 +998,6 @@
     <t>VoicePlay,0|VoiceEnd,2|VoicePlay,2.4749207|VoiceEnd,4.9142857</t>
   </si>
   <si>
-    <t>71K当晚公寓</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10845805|VoiceEnd,2.035601|VoicePlay,2.586213|VoiceEnd,4.980567</t>
-  </si>
-  <si>
-    <t>71观看后</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10750567|VoiceEnd,2.5519047</t>
-  </si>
-  <si>
     <t>72K抵达现场</t>
   </si>
   <si>
@@ -908,42 +1034,18 @@
     <t>VoicePlay,0.049297053|VoiceEnd,1.2026078|VoicePlay,1.6067574|VoiceEnd,3.243084|VoicePlay,3.7753742|VoiceEnd,7.3043084</t>
   </si>
   <si>
-    <t>77KX光显示</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.14294785|VoiceEnd,1.2|VoicePlay,1.6468707|VoiceEnd,3.156508|VoicePlay,3.979932|VoiceEnd,6.8505216</t>
-  </si>
-  <si>
     <t>78K在东八区</t>
   </si>
   <si>
     <t>VoicePlay,0.05052154|VoiceEnd,7.446576</t>
   </si>
   <si>
-    <t>79K据此</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.03743764|VoiceEnd,0.5708617|VoicePlay,1.3008163|VoiceEnd,4.51068|VoicePlay,5.025397|VoiceEnd,6.8689795</t>
-  </si>
-  <si>
-    <t>7K别乱动</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08244898|VoiceEnd,0.6126077|VoicePlay,2.1559184|VoiceEnd,3.604966|VoicePlay,4.411973|VoiceEnd,5.866916</t>
-  </si>
-  <si>
     <t>80K但那段</t>
   </si>
   <si>
     <t>VoicePlay,0.016530612|VoiceEnd,1.2535374|VoicePlay,1.6732653|VoiceEnd,4.1020184|VoicePlay,5.4293876|VoiceEnd,7.2852383|VoicePlay,7.842925|VoiceEnd,9.292585</t>
   </si>
   <si>
-    <t>80K但那段视频</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04260771|VoiceEnd,3.5147393|VoicePlay,4.9490476|VoiceEnd,8.410793</t>
-  </si>
-  <si>
     <t>81K飞机舱</t>
   </si>
   <si>
@@ -956,30 +1058,6 @@
     <t>VoicePlay,0.050136056|VoiceEnd,2.4</t>
   </si>
   <si>
-    <t>83K不能</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.03498866|VoiceEnd,1.1106349</t>
-  </si>
-  <si>
-    <t>84K我记得</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08315193|VoiceEnd,1.6826984|VoicePlay,2.5|VoiceEnd,3.939433</t>
-  </si>
-  <si>
-    <t>85K异质物</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.029727891|VoiceEnd,3.6058958|VoicePlay,4.2601814|VoiceEnd,5.4348755</t>
-  </si>
-  <si>
-    <t>85K异质物的</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.22936508|VoiceEnd,1.8853061|VoicePlay,2.1513605|VoiceEnd,3.7293425|VoicePlay,4.270635|VoiceEnd,5.224762</t>
-  </si>
-  <si>
     <t>86K门牌号</t>
   </si>
   <si>
@@ -998,24 +1076,12 @@
     <t>VoicePlay,0.13453515|VoiceEnd,2.1233106|VoicePlay,2.5210884|VoiceEnd,3.7260318|VoicePlay,4.4045577|VoiceEnd,6.1008615</t>
   </si>
   <si>
-    <t>89K每个</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.033764172|VoiceEnd,2.2087982|VoicePlay,2.9711337|VoiceEnd,4.7955103</t>
-  </si>
-  <si>
     <t>89K每个站点</t>
   </si>
   <si>
     <t>VoicePlay,0.2|VoiceEnd,2.649229|VoicePlay,3.3429706|VoiceEnd,4.921338</t>
   </si>
   <si>
-    <t>8K金属含量</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.11560091|VoicePlay,1.4422675|VoiceEnd,3.1047392|VoicePlay,3.7708163|VoiceEnd,5.41678</t>
-  </si>
-  <si>
     <t>90K或许</t>
   </si>
   <si>
@@ -1040,12 +1106,6 @@
     <t>VoicePlay,0.05909297|VoiceEnd,0.8390476|VoicePlay,1.4819274|VoiceEnd,2.3635147</t>
   </si>
   <si>
-    <t>94K还好</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.058321994|VoiceEnd,1.7141043|VoicePlay,2.733991|VoiceEnd,3.372018</t>
-  </si>
-  <si>
     <t>95K到底</t>
   </si>
   <si>
@@ -1076,124 +1136,436 @@
     <t>VoicePlay,0.12088435|VoiceEnd,1.0461905|VoicePlay,1.8|VoiceEnd,3.9307482</t>
   </si>
   <si>
-    <t>9K奇怪</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.048956916|VoiceEnd,0.8666213|VoicePlay,1.6842858|VoiceEnd,3.0013378|VoicePlay,4.0148754|VoiceEnd,4.8814964</t>
-  </si>
-  <si>
-    <t>10D你能</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.041791383|VoiceEnd,1.0696145|VoicePlay,1.6935828|VoiceEnd,2.7520409</t>
-  </si>
-  <si>
-    <t>11D从现有</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08986395|VoiceEnd,1.1424263|VoicePlay,2.117982|VoiceEnd,4.672426</t>
-  </si>
-  <si>
-    <t>11D但目前</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.061519273|VoiceEnd,2.042449</t>
-  </si>
-  <si>
-    <t>11D应该</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10038549|VoiceEnd,2.2643085</t>
-  </si>
-  <si>
-    <t>12D这才是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07807256|VoiceEnd,1.6636508|VoicePlay,2.858821|VoiceEnd,3.6275737|VoicePlay,3.8858278|VoiceEnd,5.9518595</t>
-  </si>
-  <si>
-    <t>13D你刚才说的</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.24201813|VoiceEnd,1.2838775|VoicePlay,2.149161|VoiceEnd,4.56839|VoicePlay,5.221746|VoiceEnd,7.022948</t>
-  </si>
-  <si>
-    <t>13D因为你</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.040498868|VoiceEnd,3.2787528</t>
-  </si>
-  <si>
-    <t>13D根据</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.03244898|VoiceEnd,1.5015193|VoicePlay,2.0859864|VoiceEnd,4.7007256</t>
-  </si>
-  <si>
-    <t>13D根据涂凌</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.3178458|VoiceEnd,1.871814|VoicePlay,2.7017686|VoiceEnd,5.2269616</t>
-  </si>
-  <si>
-    <t>13D能够将</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.16238095|VoiceEnd,3.0583901</t>
-  </si>
-  <si>
-    <t>14D异质物是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.12807256|VoiceEnd,3.5857143</t>
-  </si>
-  <si>
-    <t>14D每种异质物</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.1589796|VoiceEnd,1.9433106|VoicePlay,2.5409524|VoiceEnd,4.060612</t>
-  </si>
-  <si>
-    <t>15D所谓</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10562358|VoiceEnd,1.0856236|VoicePlay,2.077347|VoiceEnd,4.38356|VoicePlay,4.788458|VoiceEnd,5.8682084</t>
-  </si>
-  <si>
-    <t>16D因此</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.31217688|VoiceEnd,3.1749206|VoicePlay,3.9174602|VoiceEnd,5.2364855|VoicePlay,5.8324943|VoiceEnd,6.682494</t>
-  </si>
-  <si>
-    <t>16D由于意识领域</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.13680272|VoiceEnd,2.452381</t>
-  </si>
-  <si>
-    <t>17D总之</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10077097|VoiceEnd,0.58442175|VoicePlay,1.088254|VoiceEnd,2.0891383|VoicePlay,2.982585|VoiceEnd,3.74839|VoicePlay,4.6417913|VoiceEnd,6.670499</t>
-  </si>
-  <si>
-    <t>18D可以</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.14122449|VoiceEnd,4.0935373|VoicePlay,5.3389344|VoiceEnd,7.308753</t>
-  </si>
-  <si>
-    <t>18D后面那个</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.15249433|VoiceEnd,1.3852154|VoicePlay,1.982517|VoiceEnd,4.1556463</t>
-  </si>
-  <si>
-    <t>19D没错</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.11673469|VoiceEnd,0.4457143|VoicePlay,1.5652608|VoiceEnd,3.157075|VoicePlay,3.9317687|VoiceEnd,5.226417</t>
+    <t>00_04DH0号房间.</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.7800227</t>
+  </si>
+  <si>
+    <t>00_04DH一、被MV</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.28823128|VoicePlay,1.1529479|VoiceEnd,3.0305896|VoicePlay,3.7223582|VoiceEnd,4.06|VoicePlay,4.727052|VoiceEnd,6.934127</t>
+  </si>
+  <si>
+    <t>00_04DH不努力改变</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4759411|VoicePlay,1.8590703|VoiceEnd,3.6876645</t>
+  </si>
+  <si>
+    <t>00_04DH不就在这儿</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0.06480726|VoicePlay,0.9146032|VoiceEnd,1.649161|VoicePlay,2.3044899|VoiceEnd,3.312721|VoicePlay,3.7232199|VoiceEnd,5.3868027</t>
+  </si>
+  <si>
+    <t>00_04DH不用找门</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.6876871|VoicePlay,1.5596372|VoiceEnd,3.802449</t>
+  </si>
+  <si>
+    <t>00_04DH不用自报</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0409977|VoicePlay,1.3169388|VoiceEnd,1.7120181|VoicePlay,2.7780952|VoiceEnd,3.806576|VoicePlay,4.220476|VoiceEnd,5.269025</t>
+  </si>
+  <si>
+    <t>00_04DH不要在脑子</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4715647|VoicePlay,1.6741496|VoiceEnd,3.160975</t>
+  </si>
+  <si>
+    <t>00_04DH不需要紧张</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.3|VoicePlay,1.8429478|VoiceEnd,2.99|VoicePlay,3.3952835|VoiceEnd,6.4694104</t>
+  </si>
+  <si>
+    <t>00_04DH为了防止</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4985261|VoicePlay,1.9551927|VoiceEnd,3.5734468</t>
+  </si>
+  <si>
+    <t>00_04DH也好，看来你</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoicePlay,0.68235826|VoiceEnd,1.1588435|VoicePlay,1.8529478|VoiceEnd,3.0411565|VoicePlay,4.076485|VoiceEnd,4.894127</t>
+  </si>
+  <si>
+    <t>00_04DH书桌下面</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4553968|VoicePlay,1.7687075|VoiceEnd,4.2903857</t>
+  </si>
+  <si>
+    <t>00_04DH你只是需要</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.5264173|VoicePlay,2.7522902|VoiceEnd,3.6557822|VoicePlay,6.3746033|VoiceEnd,7.110771</t>
+  </si>
+  <si>
+    <t>00_04DH你已经见过</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.9187075|VoicePlay,3.54356|VoiceEnd,4.338685|VoicePlay,5.021474|VoiceEnd,5.825238|VoicePlay,6.343832|VoiceEnd,7.1735373</t>
+  </si>
+  <si>
+    <t>00_04DH你躲到里面</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.03628118|VoiceEnd,0.96464854|VoicePlay,1.3853061|VoiceEnd,3.05712</t>
+  </si>
+  <si>
+    <t>00_04DH光就这两</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.9934467|VoicePlay,1.4087756|VoiceEnd,4.742653</t>
+  </si>
+  <si>
+    <t>00_04DH关键信息</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoicePlay,1.4502494|VoiceEnd,2.904127</t>
+  </si>
+  <si>
+    <t>00_04DH其他身体</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.005351474|VoiceEnd,1.3763266</t>
+  </si>
+  <si>
+    <t>00_04DH分析整备</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.5685942|VoicePlay,3.238027|VoiceEnd,4.195034</t>
+  </si>
+  <si>
+    <t>00_04DH去吧，跟着</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.0034920634|VoiceEnd,0.35637188|VoicePlay,1.6001587|VoiceEnd,2.6622677</t>
+  </si>
+  <si>
+    <t>00_04DH可以稳定</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.073424034|VoiceEnd,2.689433</t>
+  </si>
+  <si>
+    <t>00_04DH同时启动了</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.240839|VoicePlay,1.7469615|VoiceEnd,2.503424|VoicePlay,2.8680499|VoiceEnd,4.527914</t>
+  </si>
+  <si>
+    <t>00_04DH和异质物作战</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.745873|VoicePlay,2.2811565|VoiceEnd,3.9035146|VoicePlay,4.4388437|VoiceEnd,6.967052</t>
+  </si>
+  <si>
+    <t>00_04DH嗯哼。非常有</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoicePlay,1.6225396|VoiceEnd,3.608526</t>
+  </si>
+  <si>
+    <t>00_04DH嗯，要获得</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoicePlay,1.5238322|VoiceEnd,3.4266212|VoicePlay,4.1280727|VoiceEnd,6.8048754</t>
+  </si>
+  <si>
+    <t>00_04DH好了，没多少</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.5126984|VoicePlay,1.0744898|VoiceEnd,2.290839|VoicePlay,3.0108163|VoiceEnd,4.4125853</t>
+  </si>
+  <si>
+    <t>00_04DH如果不及时</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0374603|VoicePlay,1.3971655|VoiceEnd,3.1654196</t>
+  </si>
+  <si>
+    <t>00_04DH它还有一个</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoiceEnd,1.3882313|VoiceEnd,2.291678|VoiceEnd,3.0665987</t>
+  </si>
+  <si>
+    <t>00_04DH对了，新人</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.414127|VoicePlay,1.694127|VoiceEnd,2.1505895|VoicePlay,3.12|VoiceEnd,3.9670522</t>
+  </si>
+  <si>
+    <t>00_04DH封存罩的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.036848072|VoiceEnd,1.8864173|VoicePlay,2.4887755|VoiceEnd,3.6464171</t>
+  </si>
+  <si>
+    <t>00_04DH怎么样？决定</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.35675737|VoicePlay,1.3447846|VoiceEnd,1.753424</t>
+  </si>
+  <si>
+    <t>00_04DH我以国家</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.782381</t>
+  </si>
+  <si>
+    <t>00_04DH我们必须</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.06589569|VoiceEnd,2.1082313|VoicePlay,2.9458957|VoiceEnd,3.5388207</t>
+  </si>
+  <si>
+    <t>00_04DH战斗，当然是</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.7624036|VoicePlay,1.405669|VoiceEnd,2.8283446</t>
+  </si>
+  <si>
+    <t>00_04DH最简单的</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4410431</t>
+  </si>
+  <si>
+    <t>00_04DH来，拿着</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.31208616|VoicePlay,1.0555782|VoiceEnd,2.111179|VoicePlay,2.726168|VoiceEnd,4.6721087</t>
+  </si>
+  <si>
+    <t>00_04DH果然没看错</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0929025|VoicePlay,2.10483|VoiceEnd,4.4039683|VoicePlay,5.0597053|VoiceEnd,6.8488207</t>
+  </si>
+  <si>
+    <t>00_04DH根据已伤亡</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.5344672|VoicePlay,3.0539682|VoiceEnd,6.682517</t>
+  </si>
+  <si>
+    <t>00_04DH欢迎加入</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.92319727|VoicePlay,1.1705896|VoiceEnd,2.4950793</t>
+  </si>
+  <si>
+    <t>00_04DH猜的没错</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.6797959|VoicePlay,1.5790249|VoiceEnd,2.4194105|VoicePlay,2.692381|VoiceEnd,4.5069613</t>
+  </si>
+  <si>
+    <t>00_04DH现在首要</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.008049887|VoiceEnd,1.611678|VoicePlay,2.2788663|VoiceEnd,3.287687</t>
+  </si>
+  <si>
+    <t>00_04DH看到后面</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.2021996|VoicePlay,1.9856689|VoiceEnd,3.0527892|VoicePlay,3.6741498|VoiceEnd,5.7003403</t>
+  </si>
+  <si>
+    <t>00_04DH给你一分钟</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.99968255|VoicePlay,1.8060998|VoiceEnd,2.4992063|VoicePlay,3.425578|VoiceEnd,3.8854196|VoicePlay,4.785125|VoiceEnd,5.5515647</t>
+  </si>
+  <si>
+    <t>00_04DH给你发个</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0240816|VoicePlay,1.6836054|VoiceEnd,2.3403628</t>
+  </si>
+  <si>
+    <t>00_04DH老老实实</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.0080726|VoicePlay,1.9493878|VoiceEnd,3.2645805|VoicePlay,4.005601|VoiceEnd,5.621179</t>
+  </si>
+  <si>
+    <t>00_04DH而且0号房间</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,3.2718368|VoicePlay,4.046576|VoiceEnd,5.3318367|VoicePlay,5.7736506|VoiceEnd,8.370997</t>
+  </si>
+  <si>
+    <t>00_04DH而最不正常</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.2721316|VoicePlay,1.7826984|VoiceEnd,3.7990704|VoicePlay,4.032721|VoiceEnd,7.35585</t>
+  </si>
+  <si>
+    <t>00_04DH要不，凯瑟琳</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.8674603|VoicePlay,1.2257596|VoiceEnd,3.4006577|VoicePlay,3.6835148|VoiceEnd,5.22356</t>
+  </si>
+  <si>
+    <t>00_04DH躲到物资耗尽</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4882313|VoicePlay,1.8647165|VoiceEnd,4.9588437</t>
+  </si>
+  <si>
+    <t>00_04DH还一口气</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.4176872|VoicePlay,3.638662|VoiceEnd,5.126939</t>
+  </si>
+  <si>
+    <t>00_04DH还记得我</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.115805|VoicePlay,1.5427665|VoiceEnd,4.725102</t>
+  </si>
+  <si>
+    <t>00_04DH这就是作战</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.1118593|VoicePlay,2.5203176|VoiceEnd,3.2503629|VoicePlay,4.3888206|VoiceEnd,7.308934</t>
+  </si>
+  <si>
+    <t>00_04DH进门晚了</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.06360544|VoiceEnd,1.2973696|VoicePlay,1.4690703|VoiceEnd,3.3261225|VoicePlay,4.0956235|VoiceEnd,5.284898</t>
+  </si>
+  <si>
+    <t>00_04DH造成这次</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.47356|VoicePlay,3.0756917|VoiceEnd,4.7936053</t>
+  </si>
+  <si>
+    <t>00_04DH钻不进去吗</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.035034012|VoiceEnd,1.0414059|VoicePlay,2.4583447|VoiceEnd,4.03551</t>
+  </si>
+  <si>
+    <t>01_01DH 3_404</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.112471655|VoiceEnd,1.1881179|VoicePlay,1.7224036|VoiceEnd,3.2690704|VoicePlay,3.92288|VoiceEnd,5.999977</t>
+  </si>
+  <si>
+    <t>01_01DH尽快找出</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.3167801</t>
+  </si>
+  <si>
+    <t>01_01DH新同事这</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.028004535|VoiceEnd,1.7737869</t>
+  </si>
+  <si>
+    <t>01_01DH既然你已</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.016575964|VoiceEnd,2.0385714</t>
+  </si>
+  <si>
+    <t>01_01DH这家『酒</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.02371882|VoiceEnd,1.238458|VoicePlay,1.9502041|VoiceEnd,4.0902267</t>
+  </si>
+  <si>
+    <t>01_01DH那你有权</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.021428572|VoiceEnd,2.5944672</t>
+  </si>
+  <si>
+    <t>01_02DH以这一层</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.6238549|VoicePlay,2.3739002|VoiceEnd,4.4929023|VoicePlay,5.2210884|VoiceEnd,6.153152</t>
+  </si>
+  <si>
+    <t>01_02DH情况越来</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.1022676|VoicePlay,1.5884807|VoiceEnd,2.4072108</t>
+  </si>
+  <si>
+    <t>01_02DH我刚去看</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.86517006|VoicePlay,1.5056462|VoiceEnd,2.914059</t>
+  </si>
+  <si>
+    <t>01_06DH 2023</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.384535</t>
+  </si>
+  <si>
+    <t>01_06DHOK，干</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.43498865|VoicePlay,1.1354195|VoiceEnd,1.6949886|VoicePlay,2.2387528|VoiceEnd,2.8883674</t>
+  </si>
+  <si>
+    <t>01_06DH嗯哼？你</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0|VoiceEnd,0.27353743|VoicePlay,1.5672336|VoiceEnd,2.560136</t>
+  </si>
+  <si>
+    <t>01_06DH或者一切</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.06371882|VoiceEnd,1.2341497|VoicePlay,1.9456463|VoiceEnd,3.4300454</t>
+  </si>
+  <si>
+    <t>01_06DH无法联系</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.6396825|VoicePlay,2.3052835|VoiceEnd,3.946984</t>
+  </si>
+  <si>
+    <t>01_06DH既然你已</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.04426304|VoiceEnd,2.96</t>
+  </si>
+  <si>
+    <t>01_06DH最早记录</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.1905216|VoicePlay,2.0657597|VoiceEnd,3.5013378|VoicePlay,4.523946|VoiceEnd,6.9122224|VoicePlay,7.587755|VoiceEnd,8.999977|VoicePlay,9.529932|VoiceEnd,10.14517</t>
+  </si>
+  <si>
+    <t>01_06DH有些事情</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.023809524|VoiceEnd,0.954127|VoicePlay,1.5914285|VoiceEnd,2.9132426</t>
+  </si>
+  <si>
+    <t>01_06DH真遗憾。</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.0070521543|VoiceEnd,0.6200907|VoicePlay,0.97240365|VoiceEnd,1.8653969</t>
   </si>
   <si>
     <t>1D确定都</t>
@@ -1202,36 +1574,6 @@
     <t>VoicePlay,0.03657596|VoiceEnd,1.1587301|VoicePlay,1.9515647|VoiceEnd,3.2078686|VoicePlay,3.4396145|VoiceEnd,4.0779138</t>
   </si>
   <si>
-    <t>20D不需要紧张</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.13569161|VoiceEnd,1.234762</t>
-  </si>
-  <si>
-    <t>20D我们已经</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.102380954|VoiceEnd,1.7578005|VoicePlay,2.6804762|VoiceEnd,3.7659864|VoicePlay,4.1594787|VoiceEnd,5.7063494</t>
-  </si>
-  <si>
-    <t>20D电梯停下</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.076031744|VoiceEnd,1.1615646|VoicePlay,1.5007709|VoiceEnd,3.1697505|VoicePlay,3.7531972|VoiceEnd,4.906576</t>
-  </si>
-  <si>
-    <t>21D你只是需要</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.12802722|VoiceEnd,2.3119502|VoicePlay,2.9972336|VoiceEnd,4.9477096|VoicePlay,6.93585|VoiceEnd,7.4479365</t>
-  </si>
-  <si>
-    <t>22D你说呢</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.0103401365|VoiceEnd,0.8345805</t>
-  </si>
-  <si>
     <t>23D我给了你</t>
   </si>
   <si>
@@ -1244,42 +1586,12 @@
     <t>VoicePlay,0.07820862|VoiceEnd,1.8588209|VoicePlay,3.1401587|VoiceEnd,4.559864|VoicePlay,5.594558|VoiceEnd,6.057755</t>
   </si>
   <si>
-    <t>25D回来了</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06553288|VoiceEnd,0.40029478|VoicePlay,1.7228345|VoiceEnd,2.3478231</t>
-  </si>
-  <si>
-    <t>26D刚好对应</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.093310654|VoiceEnd,1.7619047|VoicePlay,2.551814|VoiceEnd,3.9629931</t>
-  </si>
-  <si>
-    <t>26D看起来</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.12424036|VoiceEnd,2.076848|VoicePlay,2.5472562|VoiceEnd,4.153696</t>
-  </si>
-  <si>
-    <t>27D等收容</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.15591837|VoiceEnd,1.5672789|VoicePlay,2.117052|VoiceEnd,3.643288|VoicePlay,4.078186|VoiceEnd,5.1695237|VoicePlay,6.613696|VoiceEnd,8.197392</t>
-  </si>
-  <si>
     <t>28D不过目前</t>
   </si>
   <si>
     <t>VoicePlay,0.11879819|VoiceEnd,1.4260317|VoicePlay,2.0192971|VoiceEnd,3.7689795</t>
   </si>
   <si>
-    <t>28D异质物</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.20111111|VoiceEnd,2.5139003|VoicePlay,3.62|VoiceEnd,4.8668933</t>
-  </si>
-  <si>
     <t>29D走吧</t>
   </si>
   <si>
@@ -1340,12 +1652,6 @@
     <t>VoicePlay,0.058163267|VoiceEnd,1.8156236|VoicePlay,2.8747392|VoiceEnd,5.999977</t>
   </si>
   <si>
-    <t>35D我给你重新</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.074240364|VoiceEnd,1.7634467|VoicePlay,2.710136|VoiceEnd,5.5780497</t>
-  </si>
-  <si>
     <t>36D欢迎加入</t>
   </si>
   <si>
@@ -1370,24 +1676,12 @@
     <t>VoicePlay,0.04664399|VoiceEnd,0.5248073|VoicePlay,1.1779138|VoiceEnd,4.256848|VoicePlay,5.1082087|VoiceEnd,6.904263</t>
   </si>
   <si>
-    <t>3D你们终于</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.037414964|VoiceEnd,0.92902493</t>
-  </si>
-  <si>
     <t>40D所有</t>
   </si>
   <si>
     <t>VoicePlay,0.09040816|VoiceEnd,1.5472109|VoicePlay,2|VoiceEnd,3.466145|VoicePlay,4.2598186|VoiceEnd,5.999977</t>
   </si>
   <si>
-    <t>40D所有看完</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07986394|VoiceEnd,1.6527891|VoicePlay,2.0767348|VoiceEnd,3.4468935|VoicePlay,4.276349|VoiceEnd,6.15034</t>
-  </si>
-  <si>
     <t>41D而你</t>
   </si>
   <si>
@@ -1646,12 +1940,6 @@
     <t>VoicePlay,0.07988662|VoiceEnd,0.33675736|VoicePlay,2.0090475|VoiceEnd,3.2304761|VoicePlay,3.7726758|VoiceEnd,5.7588887</t>
   </si>
   <si>
-    <t>75D目标是</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06680272|VoiceEnd,2.1310658|VoicePlay,2.9327211|VoiceEnd,3.9999774</t>
-  </si>
-  <si>
     <t>76D可能</t>
   </si>
   <si>
@@ -1670,24 +1958,12 @@
     <t>VoiceEnd,0.08190476|VoicePlay,1.0100226|VoiceEnd,1.8465079</t>
   </si>
   <si>
-    <t>79D看来</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08807256|VoiceEnd,1.9111111|VoicePlay,2.844626|VoiceEnd,5.292948</t>
-  </si>
-  <si>
     <t>7D可能是</t>
   </si>
   <si>
     <t>VoicePlay,0.09217687|VoiceEnd,2.6052153</t>
   </si>
   <si>
-    <t>80D但是以</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06798186|VoiceEnd,2.0112245|VoicePlay,2.8270295|VoiceEnd,5.637075</t>
-  </si>
-  <si>
     <t>81D喂</t>
   </si>
   <si>
@@ -1700,12 +1976,6 @@
     <t>VoiceEnd,0.085623585|VoicePlay,0.7784127|VoiceEnd,1.5879818|VoicePlay,2.677755|VoiceEnd,3.401678|VoicePlay,3.8064399|VoiceEnd,5.908186|VoicePlay,6.577619|VoiceEnd,7.815306</t>
   </si>
   <si>
-    <t>83D已经抵达</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07823129|VoiceEnd,1.3691156|VoicePlay,2.0397053|VoiceEnd,3.4087982</t>
-  </si>
-  <si>
     <t>83D连对应</t>
   </si>
   <si>
@@ -1748,12 +2018,6 @@
     <t>VoicePlay,0.1424263|VoiceEnd,0.387551|VoicePlay,1.6880045|VoiceEnd,2.3277323</t>
   </si>
   <si>
-    <t>8D你是今天</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.029863946|VoiceEnd,1.6014059</t>
-  </si>
-  <si>
     <t>90D比如呢</t>
   </si>
   <si>
@@ -1802,10 +2066,130 @@
     <t>VoiceEnd,0.31800455|VoicePlay,2.20356|VoiceEnd,3.2121768</t>
   </si>
   <si>
-    <t>9D刚报道</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.065238096|VoiceEnd,1.9205443|VoicePlay,2.5582993|VoiceEnd,3.5874376</t>
+    <t>00_01TL哎呀。距离</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.06439909|VoiceEnd,4.102993|VoicePlay,4.5997505|VoiceEnd,7.9</t>
+  </si>
+  <si>
+    <t>00_01TL啊！我的稳</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.009750566|VoiceEnd,1.9969841|VoicePlay,2.6448073|VoiceEnd,4.2326756</t>
+  </si>
+  <si>
+    <t>00_01TL明明没有</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.8628799|VoicePlay,2.2715647|VoiceEnd,4.0393877|VoicePlay,4.761746|VoiceEnd,5.417551|VoicePlay,6.149388|VoiceEnd,8.240385</t>
+  </si>
+  <si>
+    <t>00_01TL杜杜！！</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.008843537|VoiceEnd,3.838254</t>
+  </si>
+  <si>
+    <t>00_01TL这里就很</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.00569161|VoiceEnd,1.6346031</t>
+  </si>
+  <si>
+    <t>01_01TL作战小队</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.019773243|VoiceEnd,0.94900227|VoicePlay,1.1803174|VoiceEnd,1.6884353</t>
+  </si>
+  <si>
+    <t>01_01TL哼！</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0.01217687</t>
+  </si>
+  <si>
+    <t>01_01TL异质物处</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.026984127|VoiceEnd,1.7938322|VoicePlay,2.0860543|VoiceEnd,3.8708844</t>
+  </si>
+  <si>
+    <t>01_01TL最·不</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.042857144|VoiceEnd,0.43283448|VoicePlay,0.7414059|VoiceEnd,1.0370748|VoicePlay,1.3156463|VoiceEnd,1.6284807|VoicePlay,1.7827438|VoiceEnd,2.549864|VoicePlay,2.7255557|VoiceEnd,3.689796</t>
+  </si>
+  <si>
+    <t>01_01TL最，最讨</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.0898186|VoiceEnd,0.384966|VoicePlay,1.1463265|VoiceEnd,3.0012472</t>
+  </si>
+  <si>
+    <t>01_01TL警告你喔</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.035986394|VoiceEnd,0.86360544|VoicePlay,1.2463492|VoiceEnd,2.2473469</t>
+  </si>
+  <si>
+    <t>01_01TL走，走开</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.19963719|VoiceEnd,0.4457143|VoicePlay,1.2744671|VoiceEnd,1.9778684</t>
+  </si>
+  <si>
+    <t>01_01TL还总是在</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.02276644|VoiceEnd,1.8786395</t>
+  </si>
+  <si>
+    <t>01_02TL等、等下</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.016961452|VoiceEnd,0.14526077|VoicePlay,0.5689569|VoiceEnd,0.9551474</t>
+  </si>
+  <si>
+    <t>01_02TL那我们继</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.025351474|VoiceEnd,1.3596826</t>
+  </si>
+  <si>
+    <t>01_03TL你……当</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.047528345|VoiceEnd,0.7079365|VoicePlay,1.4495465|VoiceEnd,3.441678</t>
+  </si>
+  <si>
+    <t>01_03TL她的孙女</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.3421996|VoicePlay,1.6228118|VoiceEnd,3.8621995</t>
+  </si>
+  <si>
+    <t>01_05TL差、差点</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,0.44077098|VoicePlay,0.8510204|VoiceEnd,2.8650115</t>
+  </si>
+  <si>
+    <t>01_05TL毕竟你已</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,3.471474</t>
+  </si>
+  <si>
+    <t>01_05TL链式数据</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.1071656|VoicePlay,1.8393878|VoiceEnd,3.6260772|VoicePlay,4.334875|VoiceEnd,5.0202723</t>
+  </si>
+  <si>
+    <t>01_05TL随着『巢</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.4921542|VoicePlay,1.8267347|VoiceEnd,4.0588436</t>
   </si>
   <si>
     <t>100T薛定谔</t>
@@ -1838,12 +2222,6 @@
     <t>VoicePlay,0.09303855|VoiceEnd,1.1962812|VoicePlay,1.541882|VoiceEnd,4.430703</t>
   </si>
   <si>
-    <t>105T不是这个</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08764172|VoiceEnd,1.0182767|VoicePlay,1.4356009|VoiceEnd,2.0866213</t>
-  </si>
-  <si>
     <t>106T这张照片哪里</t>
   </si>
   <si>
@@ -1946,12 +2324,6 @@
     <t>VoiceEnd,0.05984127</t>
   </si>
   <si>
-    <t>14T等等</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.019591836|VoiceEnd,0.25469387|VoicePlay,1.1232426|VoiceEnd,2.0026984</t>
-  </si>
-  <si>
     <t>14T起来了</t>
   </si>
   <si>
@@ -1964,45 +2336,18 @@
     <t>VoicePlay,0.054013606|VoiceEnd,0.2376644|VoicePlay,0.7346259|VoiceEnd,1.7339002|VoicePlay,2.7926304|VoiceEnd,3.4354196|VoicePlay,3.8945806|VoiceEnd,5.35839</t>
   </si>
   <si>
-    <t>16T哇啊啊啊</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.10319728|VoiceEnd,1.9811791|VoicePlay,2.4007936|VoiceEnd,6.817143</t>
-  </si>
-  <si>
-    <t>16T杜杜</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.100362815|VoiceEnd,5.519093</t>
-  </si>
-  <si>
     <t>17T收到</t>
   </si>
   <si>
     <t>VoicePlay,0.03521542|VoiceEnd,0.47247165</t>
   </si>
   <si>
-    <t>18T不是东西</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.048367348|VoiceEnd,0.87086165|VoicePlay,1.1272789|VoiceEnd,1.9256009|VoicePlay,2.5110204|VoiceEnd,4.8430157</t>
-  </si>
-  <si>
-    <t>19T不要说了</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04553288|VoiceEnd,0.5351927|VoicePlay,0.8919955|VoiceEnd,1.2487755</t>
-  </si>
-  <si>
-    <t>1T没错</t>
+    <t>1T没错_1</t>
   </si>
   <si>
     <t>VoicePlay,0.032471657|VoiceEnd,0.9387302</t>
   </si>
   <si>
-    <t>1T没错_1</t>
-  </si>
-  <si>
     <t>20T好险</t>
   </si>
   <si>
@@ -2015,24 +2360,12 @@
     <t>VoiceEnd,0.02829932</t>
   </si>
   <si>
-    <t>22T超感</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.012244898</t>
-  </si>
-  <si>
     <t>23T杜杜</t>
   </si>
   <si>
     <t>VoicePlay,0.064444445|VoiceEnd,1.595034|VoicePlay,2.030068|VoiceEnd,5.0348525|VoicePlay,6.8393426|VoiceEnd,8.015488</t>
   </si>
   <si>
-    <t>24T我要去</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06634921|VoiceEnd,1.1943991|VoicePlay,1.7110431|VoiceEnd,3.474195|VoicePlay,3.881814|VoiceEnd,4.730227</t>
-  </si>
-  <si>
     <t>25T你看</t>
   </si>
   <si>
@@ -2063,39 +2396,18 @@
     <t>VoiceEnd,0.06761905</t>
   </si>
   <si>
-    <t>2T我都</t>
+    <t>2T我都_1</t>
   </si>
   <si>
     <t>VoicePlay,0.03324263|VoiceEnd,1.0752381|VoicePlay,1.5075737|VoiceEnd,3.6987076</t>
   </si>
   <si>
-    <t>2T我都_1</t>
-  </si>
-  <si>
-    <t>2T我都检查</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.054965988|VoiceEnd,1.1542857|VoicePlay,1.6123356|VoiceEnd,3.6704988</t>
-  </si>
-  <si>
-    <t>30T变态</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.011043084|VoiceEnd,0.69435376</t>
-  </si>
-  <si>
     <t>31T我知道</t>
   </si>
   <si>
     <t>VoiceEnd,0.06278911</t>
   </si>
   <si>
-    <t>32T我的</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.018072562</t>
-  </si>
-  <si>
     <t>33T结果</t>
   </si>
   <si>
@@ -2114,12 +2426,6 @@
     <t>VoicePlay,0.119229026|VoiceEnd,2.4356236</t>
   </si>
   <si>
-    <t>35T你的手机</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.040975057|VoiceEnd,0.31249434|VoicePlay,0.85040814|VoiceEnd,2.8124943|VoicePlay,3.073764|VoiceEnd,5.1178</t>
-  </si>
-  <si>
     <t>35T你的手机壁纸</t>
   </si>
   <si>
@@ -2318,36 +2624,18 @@
     <t>VoicePlay,0.042585034|VoiceEnd,1.6640136|VoicePlay,2.1422448|VoiceEnd,3.2756236</t>
   </si>
   <si>
-    <t>61T这个房间的布置</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.08312925|VoiceEnd,1.7329932|VoicePlay,2.596304|VoiceEnd,6.3436737</t>
-  </si>
-  <si>
     <t>62T听邻居</t>
   </si>
   <si>
     <t>VoicePlay,0.087959185|VoiceEnd,6.7067575</t>
   </si>
   <si>
-    <t>63T但她的</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.028843537|VoiceEnd,3.4999774</t>
-  </si>
-  <si>
     <t>64T老奶奶</t>
   </si>
   <si>
     <t>VoicePlay,0.052267574|VoiceEnd,2.513492|VoicePlay,2.8513153|VoiceEnd,4.033651</t>
   </si>
   <si>
-    <t>65T根据</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06954648|VoiceEnd,1.5935147|VoicePlay,1.89483|VoiceEnd,3.9113605|VoicePlay,4.10839|VoiceEnd,5.8004084</t>
-  </si>
-  <si>
     <t>66T这是号称</t>
   </si>
   <si>
@@ -2504,12 +2792,6 @@
     <t>VoicePlay,0.05668934|VoiceEnd,3.038798|VoicePlay,3.5036962|VoiceEnd,5.6921086</t>
   </si>
   <si>
-    <t>8T啊我的</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.04882086|VoiceEnd,0.17081633|VoicePlay,0.65274376|VoiceEnd,1.7264626|VoicePlay,2.232789|VoiceEnd,3.684739</t>
-  </si>
-  <si>
     <t>90T那个效果</t>
   </si>
   <si>
@@ -2534,12 +2816,6 @@
     <t>VoicePlay,0.14675736|VoiceEnd,3.5009978</t>
   </si>
   <si>
-    <t>93头上的</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.06253968|VoiceEnd,4.7297506</t>
-  </si>
-  <si>
     <t>94T因为用词</t>
   </si>
   <si>
@@ -2582,6 +2858,84 @@
     <t>VoiceEnd,0.004648526</t>
   </si>
   <si>
+    <t>01_02NF你——！</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.0577551|VoiceEnd,0.4181179|VoiceEnd,1.1621315|VoiceEnd,2.6490476|VoicePlay,3.8689342|VoiceEnd,5.900159</t>
+  </si>
+  <si>
+    <t>01_02NF哼哼！本</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.0476644|VoiceEnd,0.8864399|VoicePlay,1.744263|VoiceEnd,3.8697731|VoicePlay,4.2796373|VoiceEnd,6.9865985|VoicePlay,7.3487983|VoiceEnd,8.28288</t>
+  </si>
+  <si>
+    <t>01_02NF我可以用</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.030068027|VoiceEnd,2.1958957|VoicePlay,2.7873924|VoiceEnd,3.8314285</t>
+  </si>
+  <si>
+    <t>01_02NF杜衡说让</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.030317461|VoiceEnd,1.3640136|VoicePlay,1.8732426|VoiceEnd,3.5767348|VoicePlay,4.0253515|VoiceEnd,4.504286</t>
+  </si>
+  <si>
+    <t>01_02NF这层的情</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.8121542</t>
+  </si>
+  <si>
+    <t>01_03NF咳咳！放</t>
+  </si>
+  <si>
+    <t>VoiceEnd,0.29700682|VoiceEnd,0.57462585|VoiceEnd,1.2151021|VoicePlay,2.1693652|VoiceEnd,2.5567575|VoicePlay,3.0087302|VoiceEnd,5.419433</t>
+  </si>
+  <si>
+    <t>01_03NF回头你想</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.02015873|VoiceEnd,1.101111|VoicePlay,1.6591157|VoiceEnd,2.909864</t>
+  </si>
+  <si>
+    <t>01_03NF好啦好啦</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.028956916|VoiceEnd,1.3552154|VoicePlay,1.9547392|VoiceEnd,3.1778457|VoicePlay,3.4906123|VoiceEnd,4.6335826</t>
+  </si>
+  <si>
+    <t>01_03NF好家伙……</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.008956916|VoiceEnd,1.2396826</t>
+  </si>
+  <si>
+    <t>01_03NF当地搜救</t>
+  </si>
+  <si>
+    <t>VoicePlay,0.075759634|VoiceEnd,1.4163946|VoicePlay,1.5840136|VoiceEnd,2.926984</t>
+  </si>
+  <si>
+    <t>01_05NF老子要亲</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.8035374</t>
+  </si>
+  <si>
+    <t>01_05NF这个破电</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,2.5999773</t>
+  </si>
+  <si>
+    <t>01_05NF这次有你</t>
+  </si>
+  <si>
+    <t>VoicePlay,0|VoiceEnd,1.359229|VoicePlay,1.745737|VoiceEnd,3.166508</t>
+  </si>
+  <si>
     <t>100你是说</t>
   </si>
   <si>
@@ -2618,12 +2972,6 @@
     <t>VoicePlay,0.049863946|VoiceEnd,0.47721088|VoicePlay,1.2962812|VoiceEnd,2.3361905</t>
   </si>
   <si>
-    <t>105啥</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.054240365|VoiceEnd,0.32081634</t>
-  </si>
-  <si>
     <t>106可是</t>
   </si>
   <si>
@@ -2672,12 +3020,6 @@
     <t>VoicePlay,0.050997734|VoiceEnd,0.74798185|VoicePlay,1.3939682|VoiceEnd,2.697279|VoicePlay,3.5756009|VoiceEnd,4.918594|VoicePlay,5.167891|VoiceEnd,5.632562</t>
   </si>
   <si>
-    <t>113现在</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.027165532|VoiceEnd,2.4879138</t>
-  </si>
-  <si>
     <t>114过来了</t>
   </si>
   <si>
@@ -2708,12 +3050,6 @@
     <t>VoicePlay,0.02845805|VoiceEnd,0.39126983|VoicePlay,1.4725851|VoiceEnd,4.15449|VoicePlay,4.8018594|VoiceEnd,7.113855</t>
   </si>
   <si>
-    <t>13一会别</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.031723358|VoiceEnd,1.7765306|VoicePlay,2.2466214|VoiceEnd,2.849365</t>
-  </si>
-  <si>
     <t>14哼</t>
   </si>
   <si>
@@ -2732,36 +3068,12 @@
     <t>VoicePlay,0.07344671|VoiceEnd,1.1907256|VoicePlay,1.5274377|VoiceEnd,2.9721994</t>
   </si>
   <si>
-    <t>17这层</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.081201814|VoiceEnd,1.7001361</t>
-  </si>
-  <si>
-    <t>18目前电梯</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.03993197|VoiceEnd,1.4844898|VoicePlay,2.163492|VoiceEnd,3.900975|VoicePlay,4.9327893|VoiceEnd,6.683583</t>
-  </si>
-  <si>
-    <t>19那我们</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.040181406|VoiceEnd,1.4137869</t>
-  </si>
-  <si>
     <t>1喂喂我是</t>
   </si>
   <si>
     <t>VoicePlay,0.054240365|VoiceEnd,0.34773242|VoicePlay,1.0185487|VoiceEnd,1.4920635|VoicePlay,2.0346258|VoiceEnd,2.4785714</t>
   </si>
   <si>
-    <t>20我刚才</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.043718822|VoiceEnd,1.1660998|VoicePlay,1.6690023|VoiceEnd,3.0319047|VoicePlay,3.6805441|VoiceEnd,4.540544|VoicePlay,5.531746|VoiceEnd,7.280907</t>
-  </si>
-  <si>
     <t>20我刚才侦查</t>
   </si>
   <si>
@@ -2828,24 +3140,12 @@
     <t>VoicePlay,0.13870749|VoiceEnd,1.3003855|VoicePlay,2.063288|VoiceEnd,3.450363</t>
   </si>
   <si>
-    <t>2我去怪不得</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.104467124|VoiceEnd,1.1153061|VoicePlay,1.9745579|VoiceEnd,3.2785714</t>
-  </si>
-  <si>
     <t>30这里</t>
   </si>
   <si>
     <t>VoicePlay,0.052494332|VoiceEnd,0.34328797|VoicePlay,0.81582767|VoiceEnd,2.3093197</t>
   </si>
   <si>
-    <t>30这里为什么</t>
-  </si>
-  <si>
-    <t>VoiceEnd,0.070408165|VoicePlay,1.7603629|VoiceEnd,2.997188</t>
-  </si>
-  <si>
     <t>31要不</t>
   </si>
   <si>
@@ -2960,12 +3260,6 @@
     <t>VoicePlay,0.15147392|VoiceEnd,1.287619|VoicePlay,2.6027665|VoiceEnd,4.5996146|VoicePlay,5.673764|VoiceEnd,6.851202</t>
   </si>
   <si>
-    <t>49信里</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.13120182|VoiceEnd,2.2442858|VoicePlay,3.6668253|VoiceEnd,4.454059|VoicePlay,5.379388|VoiceEnd,6.788118</t>
-  </si>
-  <si>
     <t>4不可能</t>
   </si>
   <si>
@@ -3104,18 +3398,6 @@
     <t>VoiceEnd,0.066757366|VoicePlay,1.491678|VoiceEnd,3.3103855</t>
   </si>
   <si>
-    <t>6全都变</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.023492064|VoiceEnd,1.8760091</t>
-  </si>
-  <si>
-    <t>6有一个</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.033764172|VoiceEnd,0.36634922|VoicePlay,1.3641043|VoiceEnd,2.5489116</t>
-  </si>
-  <si>
     <t>6有一个算</t>
   </si>
   <si>
@@ -3302,12 +3584,6 @@
     <t>VoicePlay,0.112494335|VoiceEnd,2.5004535|VoicePlay,3.5282314|VoiceEnd,5.1134014</t>
   </si>
   <si>
-    <t>96你是在</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.07696145|VoiceEnd,1.3412472|VoicePlay,2.3966439|VoiceEnd,3.649932</t>
-  </si>
-  <si>
     <t>96你是在搞笑</t>
   </si>
   <si>
@@ -3336,12 +3612,6 @@
   </si>
   <si>
     <t>VoicePlay,0.107823126|VoiceEnd,1.7970748|VoicePlay,2.4799774|VoiceEnd,3.6540816|VoicePlay,4.384898|VoiceEnd,6.2418823|VoicePlay,6.876848|VoiceEnd,7.1524262</t>
-  </si>
-  <si>
-    <t>9虽然电梯</t>
-  </si>
-  <si>
-    <t>VoicePlay,0.039977323|VoiceEnd,1.850839|VoicePlay,2.3935146|VoiceEnd,3.496009|VoicePlay,3.9301586|VoiceEnd,5.7067122</t>
   </si>
 </sst>
 </file>
@@ -3387,7 +3657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C555"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3577,7 +3847,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -3585,10 +3855,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -3596,10 +3866,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -3607,10 +3877,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -3618,10 +3888,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -3629,10 +3899,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -3640,10 +3910,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -3651,10 +3921,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -3662,10 +3932,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -3673,10 +3943,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -3684,10 +3954,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3965,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -3706,10 +3976,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -3717,10 +3987,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -3728,10 +3998,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -3739,10 +4009,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -3750,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -3761,10 +4031,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -3772,10 +4042,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -3783,10 +4053,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -3794,10 +4064,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -3805,10 +4075,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -3816,10 +4086,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -3827,10 +4097,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -3838,10 +4108,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -3849,10 +4119,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -3860,10 +4130,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -3871,10 +4141,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -3882,10 +4152,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -3893,10 +4163,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
@@ -3904,10 +4174,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -3915,10 +4185,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
@@ -3926,10 +4196,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
@@ -3937,10 +4207,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
@@ -3948,10 +4218,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
@@ -3959,10 +4229,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
@@ -3970,10 +4240,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
@@ -3981,10 +4251,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
@@ -3992,10 +4262,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
@@ -4003,10 +4273,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -4014,10 +4284,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
@@ -4025,10 +4295,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
@@ -4036,10 +4306,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
@@ -4047,10 +4317,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
@@ -4058,10 +4328,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
@@ -4069,10 +4339,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
@@ -4080,10 +4350,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
@@ -4091,10 +4361,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
@@ -4102,10 +4372,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
@@ -4113,10 +4383,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
@@ -4124,10 +4394,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -4135,10 +4405,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -4146,10 +4416,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -4157,10 +4427,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -4168,10 +4438,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
@@ -4179,10 +4449,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -4190,10 +4460,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -4201,10 +4471,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -4212,10 +4482,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -4223,10 +4493,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77">
@@ -4234,10 +4504,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78">
@@ -4245,10 +4515,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79">
@@ -4256,10 +4526,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80">
@@ -4267,10 +4537,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81">
@@ -4278,10 +4548,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82">
@@ -4289,10 +4559,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83">
@@ -4300,10 +4570,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84">
@@ -4311,10 +4581,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
@@ -4322,10 +4592,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86">
@@ -4333,10 +4603,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87">
@@ -4344,10 +4614,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88">
@@ -4355,10 +4625,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89">
@@ -4366,10 +4636,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90">
@@ -4377,10 +4647,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91">
@@ -4388,10 +4658,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -4399,10 +4669,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93">
@@ -4410,10 +4680,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94">
@@ -4421,10 +4691,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95">
@@ -4432,10 +4702,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96">
@@ -4443,10 +4713,10 @@
         <v>93</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97">
@@ -4454,10 +4724,10 @@
         <v>94</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98">
@@ -4465,10 +4735,10 @@
         <v>95</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99">
@@ -4476,10 +4746,10 @@
         <v>96</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100">
@@ -4487,10 +4757,10 @@
         <v>97</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101">
@@ -4498,10 +4768,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
@@ -4509,10 +4779,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
@@ -4520,10 +4790,10 @@
         <v>100</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
@@ -4531,10 +4801,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
@@ -4542,10 +4812,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
@@ -4553,10 +4823,10 @@
         <v>103</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107">
@@ -4564,10 +4834,10 @@
         <v>104</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108">
@@ -4575,10 +4845,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109">
@@ -4586,10 +4856,10 @@
         <v>106</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110">
@@ -4597,10 +4867,10 @@
         <v>107</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111">
@@ -4608,10 +4878,10 @@
         <v>108</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112">
@@ -4619,10 +4889,10 @@
         <v>109</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
@@ -4630,10 +4900,10 @@
         <v>110</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114">
@@ -4641,10 +4911,10 @@
         <v>111</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115">
@@ -4652,10 +4922,10 @@
         <v>112</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116">
@@ -4663,10 +4933,10 @@
         <v>113</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117">
@@ -4674,10 +4944,10 @@
         <v>114</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118">
@@ -4685,10 +4955,10 @@
         <v>115</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119">
@@ -4696,10 +4966,10 @@
         <v>116</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120">
@@ -4707,10 +4977,10 @@
         <v>117</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121">
@@ -4718,10 +4988,10 @@
         <v>118</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122">
@@ -4729,10 +4999,10 @@
         <v>119</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123">
@@ -4740,10 +5010,10 @@
         <v>120</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124">
@@ -4751,10 +5021,10 @@
         <v>121</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125">
@@ -4762,10 +5032,10 @@
         <v>122</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126">
@@ -4773,10 +5043,10 @@
         <v>123</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127">
@@ -4784,10 +5054,10 @@
         <v>124</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128">
@@ -4795,10 +5065,10 @@
         <v>125</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129">
@@ -4806,10 +5076,10 @@
         <v>126</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130">
@@ -4817,10 +5087,10 @@
         <v>127</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131">
@@ -4828,10 +5098,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132">
@@ -4839,10 +5109,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133">
@@ -4850,10 +5120,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134">
@@ -4861,10 +5131,10 @@
         <v>131</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135">
@@ -4872,10 +5142,10 @@
         <v>132</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136">
@@ -4883,10 +5153,10 @@
         <v>133</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137">
@@ -4894,10 +5164,10 @@
         <v>134</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138">
@@ -4905,10 +5175,10 @@
         <v>135</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139">
@@ -4916,10 +5186,10 @@
         <v>136</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140">
@@ -4927,10 +5197,10 @@
         <v>137</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141">
@@ -4938,10 +5208,10 @@
         <v>138</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142">
@@ -4949,10 +5219,10 @@
         <v>139</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143">
@@ -4960,10 +5230,10 @@
         <v>140</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144">
@@ -4971,10 +5241,10 @@
         <v>141</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145">
@@ -4982,10 +5252,10 @@
         <v>142</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146">
@@ -4993,10 +5263,10 @@
         <v>143</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147">
@@ -5004,10 +5274,10 @@
         <v>144</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148">
@@ -5015,10 +5285,10 @@
         <v>145</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149">
@@ -5026,10 +5296,10 @@
         <v>146</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150">
@@ -5037,10 +5307,10 @@
         <v>147</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151">
@@ -5048,10 +5318,10 @@
         <v>148</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152">
@@ -5059,10 +5329,10 @@
         <v>149</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153">
@@ -5070,10 +5340,10 @@
         <v>150</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154">
@@ -5081,10 +5351,10 @@
         <v>151</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155">
@@ -5092,10 +5362,10 @@
         <v>152</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156">
@@ -5103,10 +5373,10 @@
         <v>153</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157">
@@ -5114,10 +5384,10 @@
         <v>154</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158">
@@ -5125,10 +5395,10 @@
         <v>155</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159">
@@ -5136,10 +5406,10 @@
         <v>156</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160">
@@ -5147,10 +5417,10 @@
         <v>157</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161">
@@ -5158,10 +5428,10 @@
         <v>158</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162">
@@ -5169,10 +5439,10 @@
         <v>159</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163">
@@ -5180,10 +5450,10 @@
         <v>160</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164">
@@ -5191,10 +5461,10 @@
         <v>161</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165">
@@ -5202,10 +5472,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166">
@@ -5213,10 +5483,10 @@
         <v>163</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167">
@@ -5224,10 +5494,10 @@
         <v>164</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168">
@@ -5235,10 +5505,10 @@
         <v>165</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169">
@@ -5246,10 +5516,10 @@
         <v>166</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170">
@@ -5257,10 +5527,10 @@
         <v>167</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171">
@@ -5268,10 +5538,10 @@
         <v>168</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172">
@@ -5279,10 +5549,10 @@
         <v>169</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173">
@@ -5290,10 +5560,10 @@
         <v>170</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174">
@@ -5301,10 +5571,10 @@
         <v>171</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175">
@@ -5312,10 +5582,10 @@
         <v>172</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176">
@@ -5323,10 +5593,10 @@
         <v>173</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177">
@@ -5334,10 +5604,10 @@
         <v>174</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178">
@@ -5345,10 +5615,10 @@
         <v>175</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179">
@@ -5356,10 +5626,10 @@
         <v>176</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180">
@@ -5367,10 +5637,10 @@
         <v>177</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181">
@@ -5378,10 +5648,10 @@
         <v>178</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182">
@@ -5389,10 +5659,10 @@
         <v>179</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183">
@@ -5400,10 +5670,10 @@
         <v>180</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184">
@@ -5411,10 +5681,10 @@
         <v>181</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185">
@@ -5422,10 +5692,10 @@
         <v>182</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186">
@@ -5433,10 +5703,10 @@
         <v>183</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="187">
@@ -5444,10 +5714,10 @@
         <v>184</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188">
@@ -5455,10 +5725,10 @@
         <v>185</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189">
@@ -5466,10 +5736,10 @@
         <v>186</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190">
@@ -5477,10 +5747,10 @@
         <v>187</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191">
@@ -5488,10 +5758,10 @@
         <v>188</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192">
@@ -5499,10 +5769,10 @@
         <v>189</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193">
@@ -5510,10 +5780,10 @@
         <v>190</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194">
@@ -5521,10 +5791,10 @@
         <v>191</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195">
@@ -5532,10 +5802,10 @@
         <v>192</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196">
@@ -5543,10 +5813,10 @@
         <v>193</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197">
@@ -5554,10 +5824,10 @@
         <v>194</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198">
@@ -5565,10 +5835,10 @@
         <v>195</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199">
@@ -5576,10 +5846,10 @@
         <v>196</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200">
@@ -5587,10 +5857,10 @@
         <v>197</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201">
@@ -5598,10 +5868,10 @@
         <v>198</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -5609,10 +5879,10 @@
         <v>199</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203">
@@ -5620,10 +5890,10 @@
         <v>200</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204">
@@ -5631,10 +5901,10 @@
         <v>201</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205">
@@ -5642,10 +5912,10 @@
         <v>202</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206">
@@ -5653,10 +5923,10 @@
         <v>203</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207">
@@ -5664,10 +5934,10 @@
         <v>204</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208">
@@ -5675,10 +5945,10 @@
         <v>205</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209">
@@ -5686,10 +5956,10 @@
         <v>206</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210">
@@ -5697,10 +5967,10 @@
         <v>207</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211">
@@ -5708,10 +5978,10 @@
         <v>208</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212">
@@ -5719,10 +5989,10 @@
         <v>209</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213">
@@ -5730,10 +6000,10 @@
         <v>210</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214">
@@ -5741,10 +6011,10 @@
         <v>211</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="215">
@@ -5752,10 +6022,10 @@
         <v>212</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="216">
@@ -5763,10 +6033,10 @@
         <v>213</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217">
@@ -5774,10 +6044,10 @@
         <v>214</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218">
@@ -5785,10 +6055,10 @@
         <v>215</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219">
@@ -5796,10 +6066,10 @@
         <v>216</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220">
@@ -5807,10 +6077,10 @@
         <v>217</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="221">
@@ -5818,10 +6088,10 @@
         <v>218</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222">
@@ -5829,10 +6099,10 @@
         <v>219</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="223">
@@ -5840,10 +6110,10 @@
         <v>220</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224">
@@ -5851,10 +6121,10 @@
         <v>221</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225">
@@ -5862,10 +6132,10 @@
         <v>222</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226">
@@ -5873,10 +6143,10 @@
         <v>223</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227">
@@ -5884,10 +6154,10 @@
         <v>224</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228">
@@ -5895,10 +6165,10 @@
         <v>225</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229">
@@ -5906,10 +6176,10 @@
         <v>226</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230">
@@ -5917,10 +6187,10 @@
         <v>227</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231">
@@ -5928,10 +6198,10 @@
         <v>228</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="232">
@@ -5939,10 +6209,10 @@
         <v>229</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233">
@@ -5950,10 +6220,10 @@
         <v>230</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234">
@@ -5961,10 +6231,10 @@
         <v>231</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="235">
@@ -5972,10 +6242,10 @@
         <v>232</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="236">
@@ -5983,10 +6253,10 @@
         <v>233</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237">
@@ -5994,10 +6264,10 @@
         <v>234</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238">
@@ -6005,10 +6275,10 @@
         <v>235</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="239">
@@ -6016,10 +6286,10 @@
         <v>236</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240">
@@ -6027,10 +6297,10 @@
         <v>237</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="241">
@@ -6038,10 +6308,10 @@
         <v>238</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="242">
@@ -6049,10 +6319,10 @@
         <v>239</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="243">
@@ -6060,10 +6330,10 @@
         <v>240</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="244">
@@ -6071,10 +6341,10 @@
         <v>241</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="245">
@@ -6082,10 +6352,10 @@
         <v>242</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="246">
@@ -6093,10 +6363,10 @@
         <v>243</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="247">
@@ -6104,10 +6374,10 @@
         <v>244</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248">
@@ -6115,10 +6385,10 @@
         <v>245</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="249">
@@ -6126,10 +6396,10 @@
         <v>246</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="250">
@@ -6137,10 +6407,10 @@
         <v>247</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="251">
@@ -6148,10 +6418,10 @@
         <v>248</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="252">
@@ -6159,10 +6429,10 @@
         <v>249</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="253">
@@ -6170,10 +6440,10 @@
         <v>250</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="254">
@@ -6181,10 +6451,10 @@
         <v>251</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="255">
@@ -6192,10 +6462,10 @@
         <v>252</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="256">
@@ -6203,10 +6473,10 @@
         <v>253</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="257">
@@ -6214,10 +6484,10 @@
         <v>254</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="258">
@@ -6225,10 +6495,10 @@
         <v>255</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="259">
@@ -6236,10 +6506,10 @@
         <v>256</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="260">
@@ -6247,10 +6517,10 @@
         <v>257</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="261">
@@ -6258,10 +6528,10 @@
         <v>258</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="262">
@@ -6269,10 +6539,10 @@
         <v>259</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="263">
@@ -6280,10 +6550,10 @@
         <v>260</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="264">
@@ -6291,10 +6561,10 @@
         <v>261</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="265">
@@ -6302,10 +6572,10 @@
         <v>262</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="266">
@@ -6313,10 +6583,10 @@
         <v>263</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="267">
@@ -6324,10 +6594,10 @@
         <v>264</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="268">
@@ -6335,10 +6605,10 @@
         <v>265</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="269">
@@ -6346,10 +6616,10 @@
         <v>266</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="270">
@@ -6357,10 +6627,10 @@
         <v>267</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="271">
@@ -6368,10 +6638,10 @@
         <v>268</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="272">
@@ -6379,10 +6649,10 @@
         <v>269</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="273">
@@ -6390,10 +6660,10 @@
         <v>270</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="274">
@@ -6401,10 +6671,10 @@
         <v>271</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="275">
@@ -6412,10 +6682,10 @@
         <v>272</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276">
@@ -6423,10 +6693,10 @@
         <v>273</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="277">
@@ -6434,10 +6704,10 @@
         <v>274</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278">
@@ -6445,10 +6715,10 @@
         <v>275</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279">
@@ -6456,10 +6726,10 @@
         <v>276</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="280">
@@ -6467,10 +6737,10 @@
         <v>277</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="281">
@@ -6478,10 +6748,10 @@
         <v>278</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282">
@@ -6489,10 +6759,10 @@
         <v>279</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="283">
@@ -6500,10 +6770,10 @@
         <v>280</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284">
@@ -6511,10 +6781,10 @@
         <v>281</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="285">
@@ -6522,10 +6792,10 @@
         <v>282</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286">
@@ -6533,10 +6803,10 @@
         <v>283</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287">
@@ -6544,10 +6814,10 @@
         <v>284</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288">
@@ -6555,10 +6825,10 @@
         <v>285</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289">
@@ -6566,10 +6836,10 @@
         <v>286</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="290">
@@ -6577,10 +6847,10 @@
         <v>287</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="291">
@@ -6588,10 +6858,10 @@
         <v>288</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292">
@@ -6599,10 +6869,10 @@
         <v>289</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293">
@@ -6610,10 +6880,10 @@
         <v>290</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="294">
@@ -6621,10 +6891,10 @@
         <v>291</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="295">
@@ -6632,10 +6902,10 @@
         <v>292</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="296">
@@ -6643,10 +6913,10 @@
         <v>293</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="297">
@@ -6654,10 +6924,10 @@
         <v>294</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="298">
@@ -6665,10 +6935,10 @@
         <v>295</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="299">
@@ -6676,10 +6946,10 @@
         <v>296</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="300">
@@ -6687,10 +6957,10 @@
         <v>297</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="301">
@@ -6698,10 +6968,10 @@
         <v>298</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="302">
@@ -6709,10 +6979,10 @@
         <v>299</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="303">
@@ -6720,10 +6990,10 @@
         <v>300</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="304">
@@ -6731,10 +7001,10 @@
         <v>301</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305">
@@ -6742,10 +7012,10 @@
         <v>302</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="306">
@@ -6753,10 +7023,10 @@
         <v>303</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="307">
@@ -6764,10 +7034,10 @@
         <v>304</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="308">
@@ -6775,10 +7045,10 @@
         <v>305</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="309">
@@ -6786,10 +7056,10 @@
         <v>306</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="310">
@@ -6797,10 +7067,10 @@
         <v>307</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="311">
@@ -6808,10 +7078,10 @@
         <v>308</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="312">
@@ -6819,10 +7089,10 @@
         <v>309</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="313">
@@ -6830,10 +7100,10 @@
         <v>310</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="314">
@@ -6841,10 +7111,10 @@
         <v>311</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="315">
@@ -6852,10 +7122,10 @@
         <v>312</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="316">
@@ -6863,10 +7133,10 @@
         <v>313</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="317">
@@ -6874,10 +7144,10 @@
         <v>314</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="318">
@@ -6885,10 +7155,10 @@
         <v>315</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="319">
@@ -6896,10 +7166,10 @@
         <v>316</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="320">
@@ -6907,10 +7177,10 @@
         <v>317</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="321">
@@ -6918,10 +7188,10 @@
         <v>318</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="322">
@@ -6929,10 +7199,10 @@
         <v>319</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="323">
@@ -6940,10 +7210,10 @@
         <v>320</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="324">
@@ -6951,10 +7221,10 @@
         <v>321</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="325">
@@ -6962,10 +7232,10 @@
         <v>322</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="326">
@@ -6973,10 +7243,10 @@
         <v>323</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="327">
@@ -6984,10 +7254,10 @@
         <v>324</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="328">
@@ -6995,10 +7265,10 @@
         <v>325</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="329">
@@ -7006,10 +7276,10 @@
         <v>326</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="330">
@@ -7017,10 +7287,10 @@
         <v>327</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="331">
@@ -7028,10 +7298,10 @@
         <v>328</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="332">
@@ -7039,10 +7309,10 @@
         <v>329</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="333">
@@ -7050,10 +7320,10 @@
         <v>330</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="334">
@@ -7061,10 +7331,10 @@
         <v>331</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="335">
@@ -7072,10 +7342,10 @@
         <v>332</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="336">
@@ -7083,10 +7353,10 @@
         <v>333</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="337">
@@ -7094,10 +7364,10 @@
         <v>334</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="338">
@@ -7105,10 +7375,10 @@
         <v>335</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="339">
@@ -7116,10 +7386,10 @@
         <v>336</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="340">
@@ -7127,10 +7397,10 @@
         <v>337</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="341">
@@ -7138,10 +7408,10 @@
         <v>338</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="342">
@@ -7149,10 +7419,10 @@
         <v>339</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="343">
@@ -7160,10 +7430,10 @@
         <v>340</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="344">
@@ -7171,10 +7441,10 @@
         <v>341</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="345">
@@ -7182,10 +7452,10 @@
         <v>342</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="346">
@@ -7193,10 +7463,10 @@
         <v>343</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="347">
@@ -7204,10 +7474,10 @@
         <v>344</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="348">
@@ -7215,10 +7485,10 @@
         <v>345</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="349">
@@ -7226,10 +7496,10 @@
         <v>346</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="350">
@@ -7237,10 +7507,10 @@
         <v>347</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="351">
@@ -7248,10 +7518,10 @@
         <v>348</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="352">
@@ -7259,10 +7529,10 @@
         <v>349</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="353">
@@ -7270,10 +7540,10 @@
         <v>350</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="354">
@@ -7281,10 +7551,10 @@
         <v>351</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="355">
@@ -7292,10 +7562,10 @@
         <v>352</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="356">
@@ -7303,10 +7573,10 @@
         <v>353</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="357">
@@ -7314,10 +7584,10 @@
         <v>354</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="358">
@@ -7325,10 +7595,10 @@
         <v>355</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="359">
@@ -7336,10 +7606,10 @@
         <v>356</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="360">
@@ -7347,10 +7617,10 @@
         <v>357</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="361">
@@ -7358,10 +7628,10 @@
         <v>358</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="362">
@@ -7369,10 +7639,10 @@
         <v>359</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="363">
@@ -7380,10 +7650,10 @@
         <v>360</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="364">
@@ -7391,10 +7661,10 @@
         <v>361</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="365">
@@ -7402,10 +7672,10 @@
         <v>362</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="366">
@@ -7413,10 +7683,10 @@
         <v>363</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="367">
@@ -7424,10 +7694,10 @@
         <v>364</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="368">
@@ -7435,10 +7705,10 @@
         <v>365</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="369">
@@ -7446,10 +7716,10 @@
         <v>366</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="370">
@@ -7457,10 +7727,10 @@
         <v>367</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="371">
@@ -7468,10 +7738,10 @@
         <v>368</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="372">
@@ -7479,10 +7749,10 @@
         <v>369</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="373">
@@ -7490,10 +7760,10 @@
         <v>370</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="374">
@@ -7501,10 +7771,10 @@
         <v>371</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="375">
@@ -7512,10 +7782,10 @@
         <v>372</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="376">
@@ -7523,10 +7793,10 @@
         <v>373</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="377">
@@ -7534,10 +7804,10 @@
         <v>374</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="378">
@@ -7545,10 +7815,10 @@
         <v>375</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="379">
@@ -7556,10 +7826,10 @@
         <v>376</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="380">
@@ -7567,10 +7837,10 @@
         <v>377</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381">
@@ -7578,10 +7848,10 @@
         <v>378</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="382">
@@ -7589,10 +7859,10 @@
         <v>379</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="383">
@@ -7600,10 +7870,10 @@
         <v>380</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="384">
@@ -7611,10 +7881,10 @@
         <v>381</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="385">
@@ -7622,10 +7892,10 @@
         <v>382</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="386">
@@ -7633,10 +7903,10 @@
         <v>383</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="387">
@@ -7644,10 +7914,10 @@
         <v>384</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="388">
@@ -7655,10 +7925,10 @@
         <v>385</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="389">
@@ -7666,10 +7936,10 @@
         <v>386</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="390">
@@ -7677,10 +7947,10 @@
         <v>387</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="391">
@@ -7688,10 +7958,10 @@
         <v>388</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="392">
@@ -7699,10 +7969,10 @@
         <v>389</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="393">
@@ -7710,10 +7980,10 @@
         <v>390</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="394">
@@ -7721,10 +7991,10 @@
         <v>391</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="395">
@@ -7732,10 +8002,10 @@
         <v>392</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="396">
@@ -7743,10 +8013,10 @@
         <v>393</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="397">
@@ -7754,10 +8024,10 @@
         <v>394</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="398">
@@ -7765,10 +8035,10 @@
         <v>395</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="399">
@@ -7776,10 +8046,10 @@
         <v>396</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="400">
@@ -7787,10 +8057,10 @@
         <v>397</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="401">
@@ -7798,10 +8068,10 @@
         <v>398</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="402">
@@ -7809,10 +8079,10 @@
         <v>399</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="403">
@@ -7820,10 +8090,10 @@
         <v>400</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="404">
@@ -7831,10 +8101,10 @@
         <v>401</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="405">
@@ -7842,10 +8112,10 @@
         <v>402</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="406">
@@ -7853,10 +8123,10 @@
         <v>403</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="407">
@@ -7864,10 +8134,10 @@
         <v>404</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="408">
@@ -7875,10 +8145,10 @@
         <v>405</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="409">
@@ -7886,10 +8156,10 @@
         <v>406</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="410">
@@ -7897,10 +8167,10 @@
         <v>407</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="411">
@@ -7908,10 +8178,10 @@
         <v>408</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="412">
@@ -7919,10 +8189,10 @@
         <v>409</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="413">
@@ -7930,10 +8200,10 @@
         <v>410</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="414">
@@ -7941,10 +8211,10 @@
         <v>411</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="415">
@@ -7952,10 +8222,10 @@
         <v>412</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="416">
@@ -7963,10 +8233,10 @@
         <v>413</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="417">
@@ -7974,10 +8244,10 @@
         <v>414</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="418">
@@ -7985,10 +8255,10 @@
         <v>415</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="419">
@@ -7996,10 +8266,10 @@
         <v>416</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="420">
@@ -8007,10 +8277,10 @@
         <v>417</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="421">
@@ -8018,10 +8288,10 @@
         <v>418</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="422">
@@ -8029,10 +8299,10 @@
         <v>419</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="423">
@@ -8040,10 +8310,10 @@
         <v>420</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="424">
@@ -8051,10 +8321,10 @@
         <v>421</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="425">
@@ -8062,10 +8332,10 @@
         <v>422</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="426">
@@ -8073,10 +8343,10 @@
         <v>423</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="427">
@@ -8084,10 +8354,10 @@
         <v>424</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="428">
@@ -8095,10 +8365,10 @@
         <v>425</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="429">
@@ -8106,10 +8376,10 @@
         <v>426</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="430">
@@ -8117,10 +8387,10 @@
         <v>427</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="431">
@@ -8128,10 +8398,10 @@
         <v>428</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="432">
@@ -8139,10 +8409,10 @@
         <v>429</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="433">
@@ -8150,10 +8420,10 @@
         <v>430</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="434">
@@ -8161,10 +8431,10 @@
         <v>431</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="435">
@@ -8172,10 +8442,10 @@
         <v>432</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="436">
@@ -8183,10 +8453,10 @@
         <v>433</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="437">
@@ -8194,10 +8464,10 @@
         <v>434</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="438">
@@ -8205,10 +8475,10 @@
         <v>435</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="439">
@@ -8216,10 +8486,10 @@
         <v>436</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="440">
@@ -8227,10 +8497,10 @@
         <v>437</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="441">
@@ -8238,10 +8508,10 @@
         <v>438</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="442">
@@ -8249,10 +8519,10 @@
         <v>439</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="443">
@@ -8260,10 +8530,10 @@
         <v>440</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="444">
@@ -8271,10 +8541,10 @@
         <v>441</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="445">
@@ -8282,10 +8552,10 @@
         <v>442</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="446">
@@ -8293,10 +8563,10 @@
         <v>443</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="447">
@@ -8304,10 +8574,10 @@
         <v>444</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="448">
@@ -8315,10 +8585,10 @@
         <v>445</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="449">
@@ -8326,10 +8596,10 @@
         <v>446</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="450">
@@ -8337,10 +8607,10 @@
         <v>447</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="451">
@@ -8348,10 +8618,10 @@
         <v>448</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="452">
@@ -8359,10 +8629,10 @@
         <v>449</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="453">
@@ -8370,10 +8640,10 @@
         <v>450</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="454">
@@ -8381,10 +8651,10 @@
         <v>451</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="455">
@@ -8392,10 +8662,10 @@
         <v>452</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="456">
@@ -8403,10 +8673,10 @@
         <v>453</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="457">
@@ -8414,10 +8684,10 @@
         <v>454</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="458">
@@ -8425,10 +8695,10 @@
         <v>455</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="459">
@@ -8436,10 +8706,10 @@
         <v>456</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="460">
@@ -8447,10 +8717,10 @@
         <v>457</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="461">
@@ -8458,10 +8728,10 @@
         <v>458</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="462">
@@ -8469,10 +8739,10 @@
         <v>459</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="463">
@@ -8480,10 +8750,10 @@
         <v>460</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="464">
@@ -8491,10 +8761,10 @@
         <v>461</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="465">
@@ -8502,10 +8772,10 @@
         <v>462</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="466">
@@ -8513,10 +8783,10 @@
         <v>463</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="467">
@@ -8524,10 +8794,10 @@
         <v>464</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="468">
@@ -8535,10 +8805,10 @@
         <v>465</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="469">
@@ -8546,10 +8816,10 @@
         <v>466</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="470">
@@ -8557,10 +8827,10 @@
         <v>467</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="471">
@@ -8568,10 +8838,10 @@
         <v>468</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="472">
@@ -8579,10 +8849,10 @@
         <v>469</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="473">
@@ -8590,10 +8860,10 @@
         <v>470</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="474">
@@ -8601,10 +8871,10 @@
         <v>471</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="475">
@@ -8612,10 +8882,10 @@
         <v>472</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="476">
@@ -8623,10 +8893,10 @@
         <v>473</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="477">
@@ -8634,10 +8904,10 @@
         <v>474</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="478">
@@ -8645,10 +8915,10 @@
         <v>475</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="479">
@@ -8656,10 +8926,10 @@
         <v>476</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="480">
@@ -8667,10 +8937,10 @@
         <v>477</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="481">
@@ -8678,10 +8948,10 @@
         <v>478</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="482">
@@ -8689,10 +8959,10 @@
         <v>479</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="483">
@@ -8700,10 +8970,10 @@
         <v>480</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="484">
@@ -8711,10 +8981,10 @@
         <v>481</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="485">
@@ -8722,10 +8992,10 @@
         <v>482</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="486">
@@ -8733,10 +9003,10 @@
         <v>483</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="487">
@@ -8744,10 +9014,10 @@
         <v>484</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="488">
@@ -8755,10 +9025,10 @@
         <v>485</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="489">
@@ -8766,10 +9036,10 @@
         <v>486</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="490">
@@ -8777,10 +9047,10 @@
         <v>487</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="491">
@@ -8788,10 +9058,10 @@
         <v>488</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="492">
@@ -8799,10 +9069,10 @@
         <v>489</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="493">
@@ -8810,10 +9080,10 @@
         <v>490</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="494">
@@ -8821,10 +9091,10 @@
         <v>491</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="495">
@@ -8832,10 +9102,10 @@
         <v>492</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="496">
@@ -8843,10 +9113,10 @@
         <v>493</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="497">
@@ -8854,10 +9124,10 @@
         <v>494</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="498">
@@ -8865,10 +9135,10 @@
         <v>495</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="499">
@@ -8876,10 +9146,10 @@
         <v>496</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C499" s="0" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="500">
@@ -8887,10 +9157,10 @@
         <v>497</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="501">
@@ -8898,10 +9168,10 @@
         <v>498</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="502">
@@ -8909,10 +9179,10 @@
         <v>499</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="503">
@@ -8920,10 +9190,10 @@
         <v>500</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="504">
@@ -8931,10 +9201,10 @@
         <v>501</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="505">
@@ -8942,10 +9212,10 @@
         <v>502</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="506">
@@ -8953,10 +9223,10 @@
         <v>503</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="507">
@@ -8964,10 +9234,10 @@
         <v>504</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="508">
@@ -8975,10 +9245,10 @@
         <v>505</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="509">
@@ -8986,10 +9256,10 @@
         <v>506</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="510">
@@ -8997,10 +9267,10 @@
         <v>507</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="511">
@@ -9008,10 +9278,10 @@
         <v>508</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="512">
@@ -9019,10 +9289,10 @@
         <v>509</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="513">
@@ -9030,10 +9300,10 @@
         <v>510</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="514">
@@ -9041,10 +9311,10 @@
         <v>511</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="515">
@@ -9052,10 +9322,10 @@
         <v>512</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="516">
@@ -9063,10 +9333,10 @@
         <v>513</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="517">
@@ -9074,10 +9344,10 @@
         <v>514</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="518">
@@ -9085,10 +9355,10 @@
         <v>515</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="519">
@@ -9096,10 +9366,10 @@
         <v>516</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="520">
@@ -9107,10 +9377,10 @@
         <v>517</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="521">
@@ -9118,10 +9388,10 @@
         <v>518</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="522">
@@ -9129,10 +9399,10 @@
         <v>519</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="523">
@@ -9140,10 +9410,10 @@
         <v>520</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="524">
@@ -9151,10 +9421,10 @@
         <v>521</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="525">
@@ -9162,10 +9432,10 @@
         <v>522</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="526">
@@ -9173,10 +9443,10 @@
         <v>523</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="527">
@@ -9184,10 +9454,10 @@
         <v>524</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="528">
@@ -9195,10 +9465,10 @@
         <v>525</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="529">
@@ -9206,10 +9476,10 @@
         <v>526</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="530">
@@ -9217,10 +9487,10 @@
         <v>527</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="531">
@@ -9228,10 +9498,10 @@
         <v>528</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="532">
@@ -9239,10 +9509,10 @@
         <v>529</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="533">
@@ -9250,10 +9520,10 @@
         <v>530</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="534">
@@ -9261,10 +9531,10 @@
         <v>531</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="535">
@@ -9272,10 +9542,10 @@
         <v>532</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="536">
@@ -9283,10 +9553,10 @@
         <v>533</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="537">
@@ -9294,10 +9564,10 @@
         <v>534</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="538">
@@ -9305,10 +9575,10 @@
         <v>535</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="539">
@@ -9316,10 +9586,10 @@
         <v>536</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="540">
@@ -9327,10 +9597,10 @@
         <v>537</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="541">
@@ -9338,10 +9608,10 @@
         <v>538</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="542">
@@ -9349,10 +9619,10 @@
         <v>539</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="543">
@@ -9360,10 +9630,10 @@
         <v>540</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="544">
@@ -9371,10 +9641,10 @@
         <v>541</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="545">
@@ -9382,10 +9652,10 @@
         <v>542</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="546">
@@ -9393,10 +9663,10 @@
         <v>543</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="547">
@@ -9404,10 +9674,10 @@
         <v>544</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="548">
@@ -9415,10 +9685,10 @@
         <v>545</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="549">
@@ -9426,10 +9696,10 @@
         <v>546</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="550">
@@ -9437,10 +9707,10 @@
         <v>547</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="551">
@@ -9448,10 +9718,10 @@
         <v>548</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="552">
@@ -9459,10 +9729,10 @@
         <v>549</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="553">
@@ -9470,10 +9740,10 @@
         <v>550</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="554">
@@ -9481,10 +9751,10 @@
         <v>551</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="555">
@@ -9492,10 +9762,516 @@
         <v>552</v>
       </c>
       <c r="B555" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0">
+        <v>553</v>
+      </c>
+      <c r="B556" s="0" t="s">
         <v>1108</v>
       </c>
-      <c r="C555" s="0" t="s">
+      <c r="C556" s="0" t="s">
         <v>1109</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0">
+        <v>554</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0">
+        <v>555</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0">
+        <v>556</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0">
+        <v>557</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0">
+        <v>558</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0">
+        <v>559</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0">
+        <v>560</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0">
+        <v>561</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0">
+        <v>562</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0">
+        <v>563</v>
+      </c>
+      <c r="B566" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C566" s="0" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0">
+        <v>564</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0">
+        <v>565</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0">
+        <v>566</v>
+      </c>
+      <c r="B569" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C569" s="0" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0">
+        <v>567</v>
+      </c>
+      <c r="B570" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0">
+        <v>568</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0">
+        <v>569</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0">
+        <v>570</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0">
+        <v>571</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0">
+        <v>572</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0">
+        <v>573</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0">
+        <v>574</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0">
+        <v>575</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0">
+        <v>576</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0">
+        <v>577</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0">
+        <v>578</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0">
+        <v>579</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0">
+        <v>580</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C583" s="0" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0">
+        <v>581</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0">
+        <v>582</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0">
+        <v>583</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0">
+        <v>584</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0">
+        <v>585</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0">
+        <v>586</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0">
+        <v>587</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0">
+        <v>588</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0">
+        <v>589</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0">
+        <v>590</v>
+      </c>
+      <c r="B593" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C593" s="0" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0">
+        <v>591</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C594" s="0" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0">
+        <v>592</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C595" s="0" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0">
+        <v>593</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C596" s="0" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0">
+        <v>594</v>
+      </c>
+      <c r="B597" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C597" s="0" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0">
+        <v>595</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0">
+        <v>596</v>
+      </c>
+      <c r="B599" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0">
+        <v>597</v>
+      </c>
+      <c r="B600" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C600" s="0" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0">
+        <v>598</v>
+      </c>
+      <c r="B601" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C601" s="0" t="s">
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
